--- a/Code/Results/Cases/Case_3_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.07968202392715</v>
+        <v>21.07968202392713</v>
       </c>
       <c r="C2">
-        <v>19.23261193518504</v>
+        <v>19.23261193518509</v>
       </c>
       <c r="D2">
-        <v>6.303755265852638</v>
+        <v>6.303755265852737</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.12098588304644</v>
+        <v>41.12098588304652</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>23.52520674428057</v>
+        <v>23.52520674428064</v>
       </c>
       <c r="I2">
-        <v>30.77734736178569</v>
+        <v>30.77734736178574</v>
       </c>
       <c r="J2">
-        <v>20.10695505492093</v>
+        <v>20.10695505492091</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.56563177637285</v>
+        <v>19.56563177637284</v>
       </c>
       <c r="C3">
-        <v>17.80436349435905</v>
+        <v>17.80436349435914</v>
       </c>
       <c r="D3">
-        <v>5.987688381184305</v>
+        <v>5.987688381184244</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.67684548288562</v>
+        <v>38.67684548288567</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>22.59824874158867</v>
+        <v>22.59824874158869</v>
       </c>
       <c r="I3">
-        <v>28.33688278546141</v>
+        <v>28.33688278546139</v>
       </c>
       <c r="J3">
-        <v>18.67828838309601</v>
+        <v>18.67828838309604</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.59266403551506</v>
+        <v>18.5926640355151</v>
       </c>
       <c r="C4">
-        <v>16.89034967458558</v>
+        <v>16.89034967458567</v>
       </c>
       <c r="D4">
-        <v>5.790359346393109</v>
+        <v>5.790359346393205</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.16589991935047</v>
+        <v>37.16589991935042</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>22.0451573988075</v>
+        <v>22.04515739880748</v>
       </c>
       <c r="I4">
-        <v>26.79482653989804</v>
+        <v>26.7948265398981</v>
       </c>
       <c r="J4">
-        <v>17.76181181682045</v>
+        <v>17.7618118168205</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.18494500859608</v>
+        <v>18.18494500859611</v>
       </c>
       <c r="C5">
-        <v>16.50817563394529</v>
+        <v>16.50817563394531</v>
       </c>
       <c r="D5">
-        <v>5.709013260465498</v>
+        <v>5.709013260465582</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.54759802957376</v>
+        <v>36.54759802957352</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>21.82366128302057</v>
+        <v>21.82366128302039</v>
       </c>
       <c r="I5">
-        <v>26.15427985385198</v>
+        <v>26.15427985385188</v>
       </c>
       <c r="J5">
-        <v>17.37814082281566</v>
+        <v>17.37814082281568</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.11655654335979</v>
+        <v>18.1165565433597</v>
       </c>
       <c r="C6">
-        <v>16.44411928188686</v>
+        <v>16.44411928188679</v>
       </c>
       <c r="D6">
-        <v>5.695446800060365</v>
+        <v>5.695446800060579</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.44477781790366</v>
+        <v>36.44477781790377</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>21.78711384402405</v>
+        <v>21.78711384402417</v>
       </c>
       <c r="I6">
-        <v>26.04715267204619</v>
+        <v>26.04715267204623</v>
       </c>
       <c r="J6">
-        <v>17.31380780947784</v>
+        <v>17.31380780947775</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.58721126097578</v>
+        <v>18.58721126097576</v>
       </c>
       <c r="C7">
-        <v>16.88523531835848</v>
+        <v>16.88523531835838</v>
       </c>
       <c r="D7">
-        <v>5.789266186438849</v>
+        <v>5.789266186438812</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.15757157146265</v>
+        <v>37.15757157146269</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>22.04215461738841</v>
+        <v>22.04215461738848</v>
       </c>
       <c r="I7">
-        <v>26.78623851928706</v>
+        <v>26.78623851928687</v>
       </c>
       <c r="J7">
-        <v>17.7566791922315</v>
+        <v>17.75667919223145</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.56642071390423</v>
+        <v>20.56642071390434</v>
       </c>
       <c r="C8">
-        <v>18.74759645163125</v>
+        <v>18.74759645163132</v>
       </c>
       <c r="D8">
-        <v>6.195373705622188</v>
+        <v>6.195373705622244</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>40.28029317040219</v>
+        <v>40.28029317040214</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>23.20215062583677</v>
+        <v>23.20215062583666</v>
       </c>
       <c r="I8">
-        <v>29.94415320596</v>
+        <v>29.94415320596003</v>
       </c>
       <c r="J8">
-        <v>19.62229190726331</v>
+        <v>19.62229190726339</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.12111076717226</v>
+        <v>24.1211107671723</v>
       </c>
       <c r="C9">
-        <v>22.12609137808541</v>
+        <v>22.12609137808554</v>
       </c>
       <c r="D9">
-        <v>6.973158997325742</v>
+        <v>6.973158997325701</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>46.33685325992986</v>
+        <v>46.33685325992984</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>25.61496348635</v>
+        <v>25.61496348634995</v>
       </c>
       <c r="I9">
-        <v>35.85627800893319</v>
+        <v>35.85627800893314</v>
       </c>
       <c r="J9">
-        <v>22.98650493662287</v>
+        <v>22.98650493662289</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.56293839062051</v>
+        <v>26.56293839062045</v>
       </c>
       <c r="C10">
         <v>24.47661921663219</v>
       </c>
       <c r="D10">
-        <v>7.548120607614897</v>
+        <v>7.548120607615124</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>50.96094702036591</v>
+        <v>50.96094702036581</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>27.49535777796217</v>
+        <v>27.49535777796212</v>
       </c>
       <c r="I10">
-        <v>40.14707342828832</v>
+        <v>40.14707342828835</v>
       </c>
       <c r="J10">
-        <v>25.30856023204663</v>
+        <v>25.3085602320466</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.64555299179901</v>
+        <v>27.64555299179905</v>
       </c>
       <c r="C11">
-        <v>25.52791078009391</v>
+        <v>25.52791078009406</v>
       </c>
       <c r="D11">
-        <v>7.815735569590107</v>
+        <v>7.815735569589989</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>53.1356075514099</v>
+        <v>53.13560755140991</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>28.38298118950544</v>
+        <v>28.38298118950539</v>
       </c>
       <c r="I11">
-        <v>42.12568750342436</v>
+        <v>42.12568750342439</v>
       </c>
       <c r="J11">
-        <v>26.34134326928546</v>
+        <v>26.34134326928555</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.05242133998455</v>
+        <v>28.05242133998464</v>
       </c>
       <c r="C12">
-        <v>25.92461936067344</v>
+        <v>25.92461936067346</v>
       </c>
       <c r="D12">
-        <v>7.91861544915391</v>
+        <v>7.918615449153988</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>53.96240975241955</v>
+        <v>53.96240975241984</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>28.72485002655579</v>
+        <v>28.7248500265559</v>
       </c>
       <c r="I12">
-        <v>42.88335703886931</v>
+        <v>42.88335703886943</v>
       </c>
       <c r="J12">
-        <v>26.73005136362472</v>
+        <v>26.73005136362478</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.96491430686837</v>
+        <v>27.96491430686829</v>
       </c>
       <c r="C13">
-        <v>25.8392201187552</v>
+        <v>25.83922011875498</v>
       </c>
       <c r="D13">
-        <v>7.896376422765086</v>
+        <v>7.89637642276512</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>53.78414493979216</v>
+        <v>53.78414493979198</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>28.65094466336798</v>
       </c>
       <c r="I13">
-        <v>42.71971474526722</v>
+        <v>42.7197147452671</v>
       </c>
       <c r="J13">
-        <v>26.64642303600436</v>
+        <v>26.64642303600423</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.67908183260408</v>
+        <v>27.6790818326042</v>
       </c>
       <c r="C14">
-        <v>25.56056803629706</v>
+        <v>25.56056803629721</v>
       </c>
       <c r="D14">
-        <v>7.82416392909527</v>
+        <v>7.824163929095248</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>53.20354473689306</v>
+        <v>53.20354473689349</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>28.41098393522711</v>
+        <v>28.41098393522723</v>
       </c>
       <c r="I14">
-        <v>42.1878208768976</v>
+        <v>42.18782087689784</v>
       </c>
       <c r="J14">
-        <v>26.37336352616394</v>
+        <v>26.37336352616412</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.50363131533986</v>
+        <v>27.50363131533997</v>
       </c>
       <c r="C15">
-        <v>25.38974562836368</v>
+        <v>25.38974562836395</v>
       </c>
       <c r="D15">
-        <v>7.780156483766132</v>
+        <v>7.78015648376614</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>52.84843296495821</v>
+        <v>52.84843296495837</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>28.26478931066801</v>
+        <v>28.26478931066804</v>
       </c>
       <c r="I15">
-        <v>41.86327883002679</v>
+        <v>41.86327883002694</v>
       </c>
       <c r="J15">
-        <v>26.20583079690672</v>
+        <v>26.20583079690687</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.49169590491785</v>
+        <v>26.49169590491779</v>
       </c>
       <c r="C16">
-        <v>24.40764741922772</v>
+        <v>24.40764741922746</v>
       </c>
       <c r="D16">
-        <v>7.530804887945035</v>
+        <v>7.530804887945069</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>50.81913014952625</v>
+        <v>50.81913014952634</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>27.43808395055783</v>
+        <v>27.43808395055794</v>
       </c>
       <c r="I16">
-        <v>40.01866025225764</v>
+        <v>40.01866025225757</v>
       </c>
       <c r="J16">
-        <v>25.240671069143</v>
+        <v>25.2406710691429</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.86429168507386</v>
+        <v>25.86429168507398</v>
       </c>
       <c r="C17">
-        <v>23.80130530233651</v>
+        <v>23.80130530233658</v>
       </c>
       <c r="D17">
-        <v>7.379790480808487</v>
+        <v>7.379790480808546</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>49.5770837576684</v>
+        <v>49.57708375766867</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26.93985161477242</v>
+        <v>26.93985161477244</v>
       </c>
       <c r="I17">
-        <v>38.89668707576082</v>
+        <v>38.89668707576105</v>
       </c>
       <c r="J17">
-        <v>24.64317765866991</v>
+        <v>24.64317765867</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.50070263696422</v>
+        <v>25.5007026369643</v>
       </c>
       <c r="C18">
-        <v>23.4507739905121</v>
+        <v>23.450773990512</v>
       </c>
       <c r="D18">
-        <v>7.29345012114374</v>
+        <v>7.2934501211437</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>48.862969523823</v>
+        <v>48.8629695238231</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26.65622866657159</v>
+        <v>26.65622866657155</v>
       </c>
       <c r="I18">
-        <v>38.25352755519614</v>
+        <v>38.25352755519605</v>
       </c>
       <c r="J18">
-        <v>24.29722723056288</v>
+        <v>24.29722723056292</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.37710485221921</v>
+        <v>25.37710485221922</v>
       </c>
       <c r="C19">
-        <v>23.33175344835284</v>
+        <v>23.33175344835298</v>
       </c>
       <c r="D19">
         <v>7.264289388064156</v>
@@ -1070,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>48.62116560675341</v>
+        <v>48.62116560675345</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>26.56067732927733</v>
+        <v>26.56067732927736</v>
       </c>
       <c r="I19">
-        <v>38.0360218035711</v>
+        <v>38.03602180357116</v>
       </c>
       <c r="J19">
-        <v>24.17967528244299</v>
+        <v>24.17967528244303</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.93135560425922</v>
+        <v>25.93135560425934</v>
       </c>
       <c r="C20">
-        <v>23.86602804241216</v>
+        <v>23.86602804241221</v>
       </c>
       <c r="D20">
-        <v>7.395808429701725</v>
+        <v>7.395808429701956</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49.70925702673325</v>
+        <v>49.70925702673346</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26.99257748464547</v>
+        <v>26.99257748464554</v>
       </c>
       <c r="I20">
-        <v>39.01587015172629</v>
+        <v>39.0158701517265</v>
       </c>
       <c r="J20">
-        <v>24.70701229187075</v>
+        <v>24.70701229187085</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.76311272193205</v>
+        <v>27.76311272193202</v>
       </c>
       <c r="C21">
-        <v>25.64244141825641</v>
+        <v>25.6424414182566</v>
       </c>
       <c r="D21">
-        <v>7.845326059431549</v>
+        <v>7.845326059431668</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>53.37396621151552</v>
+        <v>53.37396621151546</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>28.48129934452472</v>
+        <v>28.48129934452466</v>
       </c>
       <c r="I21">
-        <v>42.34377820597729</v>
+        <v>42.34377820597733</v>
       </c>
       <c r="J21">
         <v>26.45362300008407</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.94290532940451</v>
+        <v>28.94290532940461</v>
       </c>
       <c r="C22">
-        <v>26.796157875458</v>
+        <v>26.79615787545802</v>
       </c>
       <c r="D22">
-        <v>8.148614873931603</v>
+        <v>8.148614873931669</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>55.79027668554476</v>
+        <v>55.7902766855448</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>29.48860768046304</v>
+        <v>29.48860768046299</v>
       </c>
       <c r="I22">
-        <v>44.57124499664682</v>
+        <v>44.57124499664679</v>
       </c>
       <c r="J22">
-        <v>27.58193987263588</v>
+        <v>27.58193987263595</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.31442159310843</v>
+        <v>28.31442159310846</v>
       </c>
       <c r="C23">
-        <v>26.18056710745348</v>
+        <v>26.18056710745345</v>
       </c>
       <c r="D23">
-        <v>7.985577962814435</v>
+        <v>7.985577962814618</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>28.94735963388996</v>
+        <v>28.94735963388991</v>
       </c>
       <c r="I23">
         <v>43.37562539557281</v>
       </c>
       <c r="J23">
-        <v>26.98052898086919</v>
+        <v>26.9805289808692</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.90104506405619</v>
+        <v>25.90104506405613</v>
       </c>
       <c r="C24">
-        <v>23.83677301023215</v>
+        <v>23.83677301023226</v>
       </c>
       <c r="D24">
-        <v>7.388565266971157</v>
+        <v>7.388565266971208</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>49.64950181406405</v>
+        <v>49.64950181406396</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26.96873142094687</v>
+        <v>26.96873142094683</v>
       </c>
       <c r="I24">
         <v>38.96198195523471</v>
       </c>
       <c r="J24">
-        <v>24.678160336371</v>
+        <v>24.67816033637097</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.19174185883702</v>
+        <v>23.19174185883699</v>
       </c>
       <c r="C25">
-        <v>21.23820559240318</v>
+        <v>21.23820559240322</v>
       </c>
       <c r="D25">
-        <v>6.763494504045009</v>
+        <v>6.763494504045014</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>44.70239943902733</v>
+        <v>44.70239943902736</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>24.94555324594742</v>
+        <v>24.94555324594741</v>
       </c>
       <c r="I25">
-        <v>34.27646763037519</v>
+        <v>34.27646763037522</v>
       </c>
       <c r="J25">
         <v>22.10518342394792</v>

--- a/Code/Results/Cases/Case_3_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_line/loading_percent.xlsx
@@ -412,31 +412,31 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.07968202392713</v>
+        <v>21.07968202392715</v>
       </c>
       <c r="C2">
-        <v>19.23261193518509</v>
+        <v>19.23261193518504</v>
       </c>
       <c r="D2">
-        <v>6.303755265852737</v>
+        <v>6.303755265852638</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.12098588304652</v>
+        <v>41.12098588304644</v>
       </c>
       <c r="G2">
         <v>0</v>
       </c>
       <c r="H2">
-        <v>23.52520674428064</v>
+        <v>23.52520674428057</v>
       </c>
       <c r="I2">
-        <v>30.77734736178574</v>
+        <v>30.77734736178569</v>
       </c>
       <c r="J2">
-        <v>20.10695505492091</v>
+        <v>20.10695505492093</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -450,31 +450,31 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.56563177637284</v>
+        <v>19.56563177637285</v>
       </c>
       <c r="C3">
-        <v>17.80436349435914</v>
+        <v>17.80436349435905</v>
       </c>
       <c r="D3">
-        <v>5.987688381184244</v>
+        <v>5.987688381184305</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.67684548288567</v>
+        <v>38.67684548288562</v>
       </c>
       <c r="G3">
         <v>0</v>
       </c>
       <c r="H3">
-        <v>22.59824874158869</v>
+        <v>22.59824874158867</v>
       </c>
       <c r="I3">
-        <v>28.33688278546139</v>
+        <v>28.33688278546141</v>
       </c>
       <c r="J3">
-        <v>18.67828838309604</v>
+        <v>18.67828838309601</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -488,31 +488,31 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.5926640355151</v>
+        <v>18.59266403551506</v>
       </c>
       <c r="C4">
-        <v>16.89034967458567</v>
+        <v>16.89034967458558</v>
       </c>
       <c r="D4">
-        <v>5.790359346393205</v>
+        <v>5.790359346393109</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.16589991935042</v>
+        <v>37.16589991935047</v>
       </c>
       <c r="G4">
         <v>0</v>
       </c>
       <c r="H4">
-        <v>22.04515739880748</v>
+        <v>22.0451573988075</v>
       </c>
       <c r="I4">
-        <v>26.7948265398981</v>
+        <v>26.79482653989804</v>
       </c>
       <c r="J4">
-        <v>17.7618118168205</v>
+        <v>17.76181181682045</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -526,31 +526,31 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.18494500859611</v>
+        <v>18.18494500859608</v>
       </c>
       <c r="C5">
-        <v>16.50817563394531</v>
+        <v>16.50817563394529</v>
       </c>
       <c r="D5">
-        <v>5.709013260465582</v>
+        <v>5.709013260465498</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.54759802957352</v>
+        <v>36.54759802957376</v>
       </c>
       <c r="G5">
         <v>0</v>
       </c>
       <c r="H5">
-        <v>21.82366128302039</v>
+        <v>21.82366128302057</v>
       </c>
       <c r="I5">
-        <v>26.15427985385188</v>
+        <v>26.15427985385198</v>
       </c>
       <c r="J5">
-        <v>17.37814082281568</v>
+        <v>17.37814082281566</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -564,31 +564,31 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.1165565433597</v>
+        <v>18.11655654335979</v>
       </c>
       <c r="C6">
-        <v>16.44411928188679</v>
+        <v>16.44411928188686</v>
       </c>
       <c r="D6">
-        <v>5.695446800060579</v>
+        <v>5.695446800060365</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.44477781790377</v>
+        <v>36.44477781790366</v>
       </c>
       <c r="G6">
         <v>0</v>
       </c>
       <c r="H6">
-        <v>21.78711384402417</v>
+        <v>21.78711384402405</v>
       </c>
       <c r="I6">
-        <v>26.04715267204623</v>
+        <v>26.04715267204619</v>
       </c>
       <c r="J6">
-        <v>17.31380780947775</v>
+        <v>17.31380780947784</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -602,31 +602,31 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.58721126097576</v>
+        <v>18.58721126097578</v>
       </c>
       <c r="C7">
-        <v>16.88523531835838</v>
+        <v>16.88523531835848</v>
       </c>
       <c r="D7">
-        <v>5.789266186438812</v>
+        <v>5.789266186438849</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.15757157146269</v>
+        <v>37.15757157146265</v>
       </c>
       <c r="G7">
         <v>0</v>
       </c>
       <c r="H7">
-        <v>22.04215461738848</v>
+        <v>22.04215461738841</v>
       </c>
       <c r="I7">
-        <v>26.78623851928687</v>
+        <v>26.78623851928706</v>
       </c>
       <c r="J7">
-        <v>17.75667919223145</v>
+        <v>17.7566791922315</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -640,31 +640,31 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.56642071390434</v>
+        <v>20.56642071390423</v>
       </c>
       <c r="C8">
-        <v>18.74759645163132</v>
+        <v>18.74759645163125</v>
       </c>
       <c r="D8">
-        <v>6.195373705622244</v>
+        <v>6.195373705622188</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>40.28029317040214</v>
+        <v>40.28029317040219</v>
       </c>
       <c r="G8">
         <v>0</v>
       </c>
       <c r="H8">
-        <v>23.20215062583666</v>
+        <v>23.20215062583677</v>
       </c>
       <c r="I8">
-        <v>29.94415320596003</v>
+        <v>29.94415320596</v>
       </c>
       <c r="J8">
-        <v>19.62229190726339</v>
+        <v>19.62229190726331</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -678,31 +678,31 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.1211107671723</v>
+        <v>24.12111076717226</v>
       </c>
       <c r="C9">
-        <v>22.12609137808554</v>
+        <v>22.12609137808541</v>
       </c>
       <c r="D9">
-        <v>6.973158997325701</v>
+        <v>6.973158997325742</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>46.33685325992984</v>
+        <v>46.33685325992986</v>
       </c>
       <c r="G9">
         <v>0</v>
       </c>
       <c r="H9">
-        <v>25.61496348634995</v>
+        <v>25.61496348635</v>
       </c>
       <c r="I9">
-        <v>35.85627800893314</v>
+        <v>35.85627800893319</v>
       </c>
       <c r="J9">
-        <v>22.98650493662289</v>
+        <v>22.98650493662287</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -716,31 +716,31 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.56293839062045</v>
+        <v>26.56293839062051</v>
       </c>
       <c r="C10">
         <v>24.47661921663219</v>
       </c>
       <c r="D10">
-        <v>7.548120607615124</v>
+        <v>7.548120607614897</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>50.96094702036581</v>
+        <v>50.96094702036591</v>
       </c>
       <c r="G10">
         <v>0</v>
       </c>
       <c r="H10">
-        <v>27.49535777796212</v>
+        <v>27.49535777796217</v>
       </c>
       <c r="I10">
-        <v>40.14707342828835</v>
+        <v>40.14707342828832</v>
       </c>
       <c r="J10">
-        <v>25.3085602320466</v>
+        <v>25.30856023204663</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -754,31 +754,31 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.64555299179905</v>
+        <v>27.64555299179901</v>
       </c>
       <c r="C11">
-        <v>25.52791078009406</v>
+        <v>25.52791078009391</v>
       </c>
       <c r="D11">
-        <v>7.815735569589989</v>
+        <v>7.815735569590107</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>53.13560755140991</v>
+        <v>53.1356075514099</v>
       </c>
       <c r="G11">
         <v>0</v>
       </c>
       <c r="H11">
-        <v>28.38298118950539</v>
+        <v>28.38298118950544</v>
       </c>
       <c r="I11">
-        <v>42.12568750342439</v>
+        <v>42.12568750342436</v>
       </c>
       <c r="J11">
-        <v>26.34134326928555</v>
+        <v>26.34134326928546</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -792,31 +792,31 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.05242133998464</v>
+        <v>28.05242133998455</v>
       </c>
       <c r="C12">
-        <v>25.92461936067346</v>
+        <v>25.92461936067344</v>
       </c>
       <c r="D12">
-        <v>7.918615449153988</v>
+        <v>7.91861544915391</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>53.96240975241984</v>
+        <v>53.96240975241955</v>
       </c>
       <c r="G12">
         <v>0</v>
       </c>
       <c r="H12">
-        <v>28.7248500265559</v>
+        <v>28.72485002655579</v>
       </c>
       <c r="I12">
-        <v>42.88335703886943</v>
+        <v>42.88335703886931</v>
       </c>
       <c r="J12">
-        <v>26.73005136362478</v>
+        <v>26.73005136362472</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -830,19 +830,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.96491430686829</v>
+        <v>27.96491430686837</v>
       </c>
       <c r="C13">
-        <v>25.83922011875498</v>
+        <v>25.8392201187552</v>
       </c>
       <c r="D13">
-        <v>7.89637642276512</v>
+        <v>7.896376422765086</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>53.78414493979198</v>
+        <v>53.78414493979216</v>
       </c>
       <c r="G13">
         <v>0</v>
@@ -851,10 +851,10 @@
         <v>28.65094466336798</v>
       </c>
       <c r="I13">
-        <v>42.7197147452671</v>
+        <v>42.71971474526722</v>
       </c>
       <c r="J13">
-        <v>26.64642303600423</v>
+        <v>26.64642303600436</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -868,31 +868,31 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.6790818326042</v>
+        <v>27.67908183260408</v>
       </c>
       <c r="C14">
-        <v>25.56056803629721</v>
+        <v>25.56056803629706</v>
       </c>
       <c r="D14">
-        <v>7.824163929095248</v>
+        <v>7.82416392909527</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>53.20354473689349</v>
+        <v>53.20354473689306</v>
       </c>
       <c r="G14">
         <v>0</v>
       </c>
       <c r="H14">
-        <v>28.41098393522723</v>
+        <v>28.41098393522711</v>
       </c>
       <c r="I14">
-        <v>42.18782087689784</v>
+        <v>42.1878208768976</v>
       </c>
       <c r="J14">
-        <v>26.37336352616412</v>
+        <v>26.37336352616394</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -906,31 +906,31 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.50363131533997</v>
+        <v>27.50363131533986</v>
       </c>
       <c r="C15">
-        <v>25.38974562836395</v>
+        <v>25.38974562836368</v>
       </c>
       <c r="D15">
-        <v>7.78015648376614</v>
+        <v>7.780156483766132</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>52.84843296495837</v>
+        <v>52.84843296495821</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>28.26478931066804</v>
+        <v>28.26478931066801</v>
       </c>
       <c r="I15">
-        <v>41.86327883002694</v>
+        <v>41.86327883002679</v>
       </c>
       <c r="J15">
-        <v>26.20583079690687</v>
+        <v>26.20583079690672</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -944,31 +944,31 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.49169590491779</v>
+        <v>26.49169590491785</v>
       </c>
       <c r="C16">
-        <v>24.40764741922746</v>
+        <v>24.40764741922772</v>
       </c>
       <c r="D16">
-        <v>7.530804887945069</v>
+        <v>7.530804887945035</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>50.81913014952634</v>
+        <v>50.81913014952625</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>27.43808395055794</v>
+        <v>27.43808395055783</v>
       </c>
       <c r="I16">
-        <v>40.01866025225757</v>
+        <v>40.01866025225764</v>
       </c>
       <c r="J16">
-        <v>25.2406710691429</v>
+        <v>25.240671069143</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -982,31 +982,31 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.86429168507398</v>
+        <v>25.86429168507386</v>
       </c>
       <c r="C17">
-        <v>23.80130530233658</v>
+        <v>23.80130530233651</v>
       </c>
       <c r="D17">
-        <v>7.379790480808546</v>
+        <v>7.379790480808487</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>49.57708375766867</v>
+        <v>49.5770837576684</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>26.93985161477244</v>
+        <v>26.93985161477242</v>
       </c>
       <c r="I17">
-        <v>38.89668707576105</v>
+        <v>38.89668707576082</v>
       </c>
       <c r="J17">
-        <v>24.64317765867</v>
+        <v>24.64317765866991</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -1020,31 +1020,31 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.5007026369643</v>
+        <v>25.50070263696422</v>
       </c>
       <c r="C18">
-        <v>23.450773990512</v>
+        <v>23.4507739905121</v>
       </c>
       <c r="D18">
-        <v>7.2934501211437</v>
+        <v>7.29345012114374</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>48.8629695238231</v>
+        <v>48.862969523823</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>26.65622866657155</v>
+        <v>26.65622866657159</v>
       </c>
       <c r="I18">
-        <v>38.25352755519605</v>
+        <v>38.25352755519614</v>
       </c>
       <c r="J18">
-        <v>24.29722723056292</v>
+        <v>24.29722723056288</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1058,10 +1058,10 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.37710485221922</v>
+        <v>25.37710485221921</v>
       </c>
       <c r="C19">
-        <v>23.33175344835298</v>
+        <v>23.33175344835284</v>
       </c>
       <c r="D19">
         <v>7.264289388064156</v>
@@ -1070,19 +1070,19 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>48.62116560675345</v>
+        <v>48.62116560675341</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>26.56067732927736</v>
+        <v>26.56067732927733</v>
       </c>
       <c r="I19">
-        <v>38.03602180357116</v>
+        <v>38.0360218035711</v>
       </c>
       <c r="J19">
-        <v>24.17967528244303</v>
+        <v>24.17967528244299</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1096,31 +1096,31 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.93135560425934</v>
+        <v>25.93135560425922</v>
       </c>
       <c r="C20">
-        <v>23.86602804241221</v>
+        <v>23.86602804241216</v>
       </c>
       <c r="D20">
-        <v>7.395808429701956</v>
+        <v>7.395808429701725</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49.70925702673346</v>
+        <v>49.70925702673325</v>
       </c>
       <c r="G20">
         <v>0</v>
       </c>
       <c r="H20">
-        <v>26.99257748464554</v>
+        <v>26.99257748464547</v>
       </c>
       <c r="I20">
-        <v>39.0158701517265</v>
+        <v>39.01587015172629</v>
       </c>
       <c r="J20">
-        <v>24.70701229187085</v>
+        <v>24.70701229187075</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1134,28 +1134,28 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.76311272193202</v>
+        <v>27.76311272193205</v>
       </c>
       <c r="C21">
-        <v>25.6424414182566</v>
+        <v>25.64244141825641</v>
       </c>
       <c r="D21">
-        <v>7.845326059431668</v>
+        <v>7.845326059431549</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>53.37396621151546</v>
+        <v>53.37396621151552</v>
       </c>
       <c r="G21">
         <v>0</v>
       </c>
       <c r="H21">
-        <v>28.48129934452466</v>
+        <v>28.48129934452472</v>
       </c>
       <c r="I21">
-        <v>42.34377820597733</v>
+        <v>42.34377820597729</v>
       </c>
       <c r="J21">
         <v>26.45362300008407</v>
@@ -1172,31 +1172,31 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.94290532940461</v>
+        <v>28.94290532940451</v>
       </c>
       <c r="C22">
-        <v>26.79615787545802</v>
+        <v>26.796157875458</v>
       </c>
       <c r="D22">
-        <v>8.148614873931669</v>
+        <v>8.148614873931603</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>55.7902766855448</v>
+        <v>55.79027668554476</v>
       </c>
       <c r="G22">
         <v>0</v>
       </c>
       <c r="H22">
-        <v>29.48860768046299</v>
+        <v>29.48860768046304</v>
       </c>
       <c r="I22">
-        <v>44.57124499664679</v>
+        <v>44.57124499664682</v>
       </c>
       <c r="J22">
-        <v>27.58193987263595</v>
+        <v>27.58193987263588</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1210,13 +1210,13 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.31442159310846</v>
+        <v>28.31442159310843</v>
       </c>
       <c r="C23">
-        <v>26.18056710745345</v>
+        <v>26.18056710745348</v>
       </c>
       <c r="D23">
-        <v>7.985577962814618</v>
+        <v>7.985577962814435</v>
       </c>
       <c r="E23">
         <v>0</v>
@@ -1228,13 +1228,13 @@
         <v>0</v>
       </c>
       <c r="H23">
-        <v>28.94735963388991</v>
+        <v>28.94735963388996</v>
       </c>
       <c r="I23">
         <v>43.37562539557281</v>
       </c>
       <c r="J23">
-        <v>26.9805289808692</v>
+        <v>26.98052898086919</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1248,31 +1248,31 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.90104506405613</v>
+        <v>25.90104506405619</v>
       </c>
       <c r="C24">
-        <v>23.83677301023226</v>
+        <v>23.83677301023215</v>
       </c>
       <c r="D24">
-        <v>7.388565266971208</v>
+        <v>7.388565266971157</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>49.64950181406396</v>
+        <v>49.64950181406405</v>
       </c>
       <c r="G24">
         <v>0</v>
       </c>
       <c r="H24">
-        <v>26.96873142094683</v>
+        <v>26.96873142094687</v>
       </c>
       <c r="I24">
         <v>38.96198195523471</v>
       </c>
       <c r="J24">
-        <v>24.67816033637097</v>
+        <v>24.678160336371</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1286,28 +1286,28 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.19174185883699</v>
+        <v>23.19174185883702</v>
       </c>
       <c r="C25">
-        <v>21.23820559240322</v>
+        <v>21.23820559240318</v>
       </c>
       <c r="D25">
-        <v>6.763494504045014</v>
+        <v>6.763494504045009</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>44.70239943902736</v>
+        <v>44.70239943902733</v>
       </c>
       <c r="G25">
         <v>0</v>
       </c>
       <c r="H25">
-        <v>24.94555324594741</v>
+        <v>24.94555324594742</v>
       </c>
       <c r="I25">
-        <v>34.27646763037522</v>
+        <v>34.27646763037519</v>
       </c>
       <c r="J25">
         <v>22.10518342394792</v>

--- a/Code/Results/Cases/Case_3_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:L25"/>
+  <dimension ref="A1:M25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:12">
+    <row r="1" spans="1:13">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -406,916 +406,991 @@
       <c r="L1" s="1">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:12">
+      <c r="M1" s="1">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>21.07968202392715</v>
+        <v>20.96875607308585</v>
       </c>
       <c r="C2">
-        <v>19.23261193518504</v>
+        <v>19.10105799769602</v>
       </c>
       <c r="D2">
-        <v>6.303755265852638</v>
+        <v>6.394565481682592</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.12098588304644</v>
+        <v>41.1888234826685</v>
       </c>
       <c r="G2">
-        <v>0</v>
+        <v>2.046417868408663</v>
       </c>
       <c r="H2">
-        <v>23.52520674428057</v>
+        <v>0</v>
       </c>
       <c r="I2">
-        <v>30.77734736178569</v>
+        <v>23.66906768234602</v>
       </c>
       <c r="J2">
-        <v>20.10695505492093</v>
+        <v>30.70629904266963</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>19.97853666982611</v>
       </c>
       <c r="L2">
         <v>0</v>
       </c>
-    </row>
-    <row r="3" spans="1:12">
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.56563177637285</v>
+        <v>19.45911279207523</v>
       </c>
       <c r="C3">
-        <v>17.80436349435905</v>
+        <v>17.67961335595587</v>
       </c>
       <c r="D3">
-        <v>5.987688381184305</v>
+        <v>6.081937889220473</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.67684548288562</v>
+        <v>38.78438867410771</v>
       </c>
       <c r="G3">
-        <v>0</v>
+        <v>2.059651353407526</v>
       </c>
       <c r="H3">
-        <v>22.59824874158867</v>
+        <v>0</v>
       </c>
       <c r="I3">
-        <v>28.33688278546141</v>
+        <v>22.76671291365226</v>
       </c>
       <c r="J3">
-        <v>18.67828838309601</v>
+        <v>28.27396092301472</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>18.55329531313168</v>
       </c>
       <c r="L3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:12">
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.59266403551506</v>
+        <v>18.48884618430376</v>
       </c>
       <c r="C4">
-        <v>16.89034967458558</v>
+        <v>16.76989649202033</v>
       </c>
       <c r="D4">
-        <v>5.790359346393109</v>
+        <v>5.886905913788322</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.16589991935047</v>
+        <v>37.29992385339968</v>
       </c>
       <c r="G4">
-        <v>0</v>
+        <v>2.067854396227057</v>
       </c>
       <c r="H4">
-        <v>22.0451573988075</v>
+        <v>0</v>
       </c>
       <c r="I4">
-        <v>26.79482653989804</v>
+        <v>22.22940359432155</v>
       </c>
       <c r="J4">
-        <v>17.76181181682045</v>
+        <v>26.73667547069313</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>17.63878688326716</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:12">
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.18494500859608</v>
+        <v>18.08223027668418</v>
       </c>
       <c r="C5">
-        <v>16.50817563394529</v>
+        <v>16.38951142807284</v>
       </c>
       <c r="D5">
-        <v>5.709013260465498</v>
+        <v>5.806544967391311</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.54759802957376</v>
+        <v>36.69295915564816</v>
       </c>
       <c r="G5">
-        <v>0</v>
+        <v>2.071223189534889</v>
       </c>
       <c r="H5">
-        <v>21.82366128302057</v>
+        <v>0</v>
       </c>
       <c r="I5">
-        <v>26.15427985385198</v>
+        <v>22.01449890298785</v>
       </c>
       <c r="J5">
-        <v>17.37814082281566</v>
+        <v>26.09803598252366</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>17.25588491745616</v>
       </c>
       <c r="L5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:12">
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.11655654335979</v>
+        <v>18.01402521345965</v>
       </c>
       <c r="C6">
-        <v>16.44411928188686</v>
+        <v>16.3257546460617</v>
       </c>
       <c r="D6">
-        <v>5.695446800060365</v>
+        <v>5.793145109819408</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.44477781790366</v>
+        <v>36.59205483336182</v>
       </c>
       <c r="G6">
-        <v>0</v>
+        <v>2.071784317769557</v>
       </c>
       <c r="H6">
-        <v>21.78711384402405</v>
+        <v>0</v>
       </c>
       <c r="I6">
-        <v>26.04715267204619</v>
+        <v>21.97905527648075</v>
       </c>
       <c r="J6">
-        <v>17.31380780947784</v>
+        <v>25.99122371382664</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>17.19167760257287</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:12">
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.58721126097578</v>
+        <v>18.48340827314995</v>
       </c>
       <c r="C7">
-        <v>16.88523531835848</v>
+        <v>16.76480609893912</v>
       </c>
       <c r="D7">
-        <v>5.789266186438849</v>
+        <v>5.885825838387922</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.15757157146265</v>
+        <v>37.29174617371381</v>
       </c>
       <c r="G7">
-        <v>0</v>
+        <v>2.067899715799131</v>
       </c>
       <c r="H7">
-        <v>22.04215461738841</v>
+        <v>0</v>
       </c>
       <c r="I7">
-        <v>26.78623851928706</v>
+        <v>22.22648907455959</v>
       </c>
       <c r="J7">
-        <v>17.7566791922315</v>
+        <v>26.72811329973245</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>17.63366476367004</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:12">
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.56642071390423</v>
+        <v>20.45701776551477</v>
       </c>
       <c r="C8">
-        <v>18.74759645163125</v>
+        <v>18.61836867234481</v>
       </c>
       <c r="D8">
-        <v>6.195373705622188</v>
+        <v>6.287333066747743</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>40.28029317040219</v>
+        <v>40.36139793850769</v>
       </c>
       <c r="G8">
-        <v>0</v>
+        <v>2.050968840584263</v>
       </c>
       <c r="H8">
-        <v>23.20215062583677</v>
+        <v>0</v>
       </c>
       <c r="I8">
-        <v>29.94415320596</v>
+        <v>23.35434998008139</v>
       </c>
       <c r="J8">
-        <v>19.62229190726331</v>
+        <v>29.87596459372928</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>19.49508370630641</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:12">
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.12111076717226</v>
+        <v>24.0004595689456</v>
       </c>
       <c r="C9">
-        <v>22.12609137808541</v>
+        <v>21.98014535104772</v>
       </c>
       <c r="D9">
-        <v>6.973158997325742</v>
+        <v>7.0574057088621</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>46.33685325992986</v>
+        <v>46.32939908522261</v>
       </c>
       <c r="G9">
-        <v>0</v>
+        <v>2.018035038600201</v>
       </c>
       <c r="H9">
-        <v>25.61496348635</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>35.85627800893319</v>
+        <v>25.70969586302297</v>
       </c>
       <c r="J9">
-        <v>22.98650493662287</v>
+        <v>35.76550472760064</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>22.84985706848248</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:12">
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.56293839062051</v>
+        <v>26.4333918472846</v>
       </c>
       <c r="C10">
-        <v>24.47661921663219</v>
+        <v>24.31798107840445</v>
       </c>
       <c r="D10">
-        <v>7.548120607614897</v>
+        <v>7.627157278199446</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>50.96094702036591</v>
+        <v>50.84065416656287</v>
       </c>
       <c r="G10">
-        <v>0</v>
+        <v>1.993396117338676</v>
       </c>
       <c r="H10">
-        <v>27.49535777796217</v>
+        <v>0</v>
       </c>
       <c r="I10">
-        <v>40.14707342828832</v>
+        <v>27.55106958561531</v>
       </c>
       <c r="J10">
-        <v>25.30856023204663</v>
+        <v>40.03566380396637</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>25.16384141063631</v>
       </c>
       <c r="L10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:12">
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.64555299179901</v>
+        <v>27.51165047831552</v>
       </c>
       <c r="C11">
-        <v>25.52791078009391</v>
+        <v>25.36316304483913</v>
       </c>
       <c r="D11">
-        <v>7.815735569590107</v>
+        <v>7.892369104594533</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>53.1356075514099</v>
+        <v>52.99206410991599</v>
       </c>
       <c r="G11">
-        <v>0</v>
+        <v>1.981906656795303</v>
       </c>
       <c r="H11">
-        <v>28.38298118950544</v>
+        <v>0</v>
       </c>
       <c r="I11">
-        <v>42.12568750342436</v>
+        <v>28.42143320694289</v>
       </c>
       <c r="J11">
-        <v>26.34134326928546</v>
+        <v>42.00312493716976</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>26.19253819395531</v>
       </c>
       <c r="L11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:12">
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>28.05242133998455</v>
+        <v>27.9168019961656</v>
       </c>
       <c r="C12">
-        <v>25.92461936067344</v>
+        <v>25.75747808963339</v>
       </c>
       <c r="D12">
-        <v>7.91861544915391</v>
+        <v>7.99431566701698</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>53.96240975241955</v>
+        <v>53.81006482950749</v>
       </c>
       <c r="G12">
-        <v>0</v>
+        <v>1.977494420053038</v>
       </c>
       <c r="H12">
-        <v>28.72485002655579</v>
+        <v>0</v>
       </c>
       <c r="I12">
-        <v>42.88335703886931</v>
+        <v>28.75680364159866</v>
       </c>
       <c r="J12">
-        <v>26.73005136362472</v>
+        <v>42.75619342747106</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>26.57961585199688</v>
       </c>
       <c r="L12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:12">
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.96491430686837</v>
+        <v>27.82966818385794</v>
       </c>
       <c r="C13">
-        <v>25.8392201187552</v>
+        <v>25.67259855033564</v>
       </c>
       <c r="D13">
-        <v>7.896376422765086</v>
+        <v>7.972279084983766</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>53.78414493979216</v>
+        <v>53.63369724496775</v>
       </c>
       <c r="G13">
-        <v>0</v>
+        <v>1.978447810278577</v>
       </c>
       <c r="H13">
-        <v>28.65094466336798</v>
+        <v>0</v>
       </c>
       <c r="I13">
-        <v>42.71971474526722</v>
+        <v>28.68429687996323</v>
       </c>
       <c r="J13">
-        <v>26.64642303600436</v>
+        <v>42.59356151211279</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>26.49634285887886</v>
       </c>
       <c r="L13">
         <v>0</v>
       </c>
-    </row>
-    <row r="14" spans="1:12">
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.67908183260408</v>
+        <v>27.54503959126339</v>
       </c>
       <c r="C14">
-        <v>25.56056803629706</v>
+        <v>25.39562521664908</v>
       </c>
       <c r="D14">
-        <v>7.82416392909527</v>
+        <v>7.900721287264316</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>53.20354473689306</v>
+        <v>53.05927776916582</v>
       </c>
       <c r="G14">
-        <v>0</v>
+        <v>1.981545033658602</v>
       </c>
       <c r="H14">
-        <v>28.41098393522711</v>
+        <v>0</v>
       </c>
       <c r="I14">
-        <v>42.1878208768976</v>
+        <v>28.44890082698912</v>
       </c>
       <c r="J14">
-        <v>26.37336352616394</v>
+        <v>42.06488828333566</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>26.22442615303536</v>
       </c>
       <c r="L14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:12">
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.50363131533986</v>
+        <v>27.37031686924057</v>
       </c>
       <c r="C15">
-        <v>25.38974562836368</v>
+        <v>25.22581950689033</v>
       </c>
       <c r="D15">
-        <v>7.780156483766132</v>
+        <v>7.85711111611848</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>52.84843296495821</v>
+        <v>52.70794901988138</v>
       </c>
       <c r="G15">
-        <v>0</v>
+        <v>1.983433441879369</v>
       </c>
       <c r="H15">
-        <v>28.26478931066801</v>
+        <v>0</v>
       </c>
       <c r="I15">
-        <v>41.86327883002679</v>
+        <v>28.30550579972044</v>
       </c>
       <c r="J15">
-        <v>26.20583079690672</v>
+        <v>41.74226506104722</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>26.05758172313916</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
-    </row>
-    <row r="16" spans="1:12">
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.49169590491785</v>
+        <v>26.36242607189454</v>
       </c>
       <c r="C16">
-        <v>24.40764741922772</v>
+        <v>24.24939937818068</v>
       </c>
       <c r="D16">
-        <v>7.530804887945035</v>
+        <v>7.609996556855972</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>50.81913014952625</v>
+        <v>50.70036282613719</v>
       </c>
       <c r="G16">
-        <v>0</v>
+        <v>1.99413966436994</v>
       </c>
       <c r="H16">
-        <v>27.43808395055783</v>
+        <v>0</v>
       </c>
       <c r="I16">
-        <v>40.01866025225764</v>
+        <v>27.49493115382475</v>
       </c>
       <c r="J16">
-        <v>25.240671069143</v>
+        <v>39.90793469275542</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>25.09620918177276</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:12">
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.86429168507386</v>
+        <v>25.73741041487552</v>
       </c>
       <c r="C17">
-        <v>23.80130530233651</v>
+        <v>23.64643576492747</v>
       </c>
       <c r="D17">
-        <v>7.379790480808487</v>
+        <v>7.460335417223221</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>49.5770837576684</v>
+        <v>49.47175038816545</v>
       </c>
       <c r="G17">
-        <v>0</v>
+        <v>2.000622444976064</v>
       </c>
       <c r="H17">
-        <v>26.93985161477242</v>
+        <v>0</v>
       </c>
       <c r="I17">
-        <v>38.89668707576082</v>
+        <v>27.00670167288401</v>
       </c>
       <c r="J17">
-        <v>24.64317765866991</v>
+        <v>38.79174971311184</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>24.50091928656684</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:12">
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.50070263696422</v>
+        <v>25.37516786806712</v>
       </c>
       <c r="C18">
-        <v>23.4507739905121</v>
+        <v>23.29781851458457</v>
       </c>
       <c r="D18">
-        <v>7.29345012114374</v>
+        <v>7.374771792694612</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>48.862969523823</v>
+        <v>48.78481206570557</v>
       </c>
       <c r="G18">
-        <v>0</v>
+        <v>2.004326256435749</v>
       </c>
       <c r="H18">
-        <v>26.65622866657159</v>
+        <v>0</v>
       </c>
       <c r="I18">
-        <v>38.25352755519614</v>
+        <v>26.72888107579243</v>
       </c>
       <c r="J18">
-        <v>24.29722723056288</v>
+        <v>38.15176313276613</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>24.15619909389849</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:12">
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.37710485221921</v>
+        <v>25.25202183882567</v>
       </c>
       <c r="C19">
-        <v>23.33175344835284</v>
+        <v>23.17944180098403</v>
       </c>
       <c r="D19">
-        <v>7.264289388064156</v>
+        <v>7.345874199367218</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>48.62116560675341</v>
+        <v>48.56186345585239</v>
       </c>
       <c r="G19">
-        <v>0</v>
+        <v>2.005576570737448</v>
       </c>
       <c r="H19">
-        <v>26.56067732927733</v>
+        <v>0</v>
       </c>
       <c r="I19">
-        <v>38.0360218035711</v>
+        <v>26.63530347368367</v>
       </c>
       <c r="J19">
-        <v>24.17967528244299</v>
+        <v>37.93530773032357</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>24.03905785121004</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:12">
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.93135560425922</v>
+        <v>25.80422303207347</v>
       </c>
       <c r="C20">
-        <v>23.86602804241216</v>
+        <v>23.71080206535371</v>
       </c>
       <c r="D20">
-        <v>7.395808429701725</v>
+        <v>7.476209583727153</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49.70925702673325</v>
+        <v>49.60248708562168</v>
       </c>
       <c r="G20">
-        <v>0</v>
+        <v>1.999935053449272</v>
       </c>
       <c r="H20">
-        <v>26.99257748464547</v>
+        <v>0</v>
       </c>
       <c r="I20">
-        <v>39.01587015172629</v>
+        <v>27.05835784013573</v>
       </c>
       <c r="J20">
-        <v>24.70701229187075</v>
+        <v>38.91033351528761</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>24.56452333541026</v>
       </c>
       <c r="L20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:12">
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.76311272193205</v>
+        <v>27.62871893172593</v>
       </c>
       <c r="C21">
-        <v>25.64244141825641</v>
+        <v>25.4770080006419</v>
       </c>
       <c r="D21">
-        <v>7.845326059431549</v>
+        <v>7.921691945828321</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>53.37396621151552</v>
+        <v>53.227884619718</v>
       </c>
       <c r="G21">
-        <v>0</v>
+        <v>1.980637170421862</v>
       </c>
       <c r="H21">
-        <v>28.48129934452472</v>
+        <v>0</v>
       </c>
       <c r="I21">
-        <v>42.34377820597729</v>
+        <v>28.51787481550135</v>
       </c>
       <c r="J21">
-        <v>26.45362300008407</v>
+        <v>42.21991118303752</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>26.30435245489377</v>
       </c>
       <c r="L21">
         <v>0</v>
       </c>
-    </row>
-    <row r="22" spans="1:12">
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.94290532940451</v>
+        <v>28.80335420173218</v>
       </c>
       <c r="C22">
-        <v>26.796157875458</v>
+        <v>26.62356081650204</v>
       </c>
       <c r="D22">
-        <v>8.148614873931603</v>
+        <v>8.222190726154386</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>55.79027668554476</v>
+        <v>55.61845030163983</v>
       </c>
       <c r="G22">
-        <v>0</v>
+        <v>1.967651900503269</v>
       </c>
       <c r="H22">
-        <v>29.48860768046304</v>
+        <v>0</v>
       </c>
       <c r="I22">
-        <v>44.57124499664682</v>
+        <v>29.50628452564256</v>
       </c>
       <c r="J22">
-        <v>27.58193987263588</v>
+        <v>44.43308515272795</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>27.42773262963227</v>
       </c>
       <c r="L22">
         <v>0</v>
       </c>
-    </row>
-    <row r="23" spans="1:12">
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.31442159310843</v>
+        <v>28.17767126800159</v>
       </c>
       <c r="C23">
-        <v>26.18056710745348</v>
+        <v>26.01185298814125</v>
       </c>
       <c r="D23">
-        <v>7.985577962814435</v>
+        <v>8.060665879545013</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>54.49759121949567</v>
+        <v>54.33954973523528</v>
       </c>
       <c r="G23">
-        <v>0</v>
+        <v>1.974625268475214</v>
       </c>
       <c r="H23">
-        <v>28.94735963388996</v>
+        <v>0</v>
       </c>
       <c r="I23">
-        <v>43.37562539557281</v>
+        <v>28.97512187619701</v>
       </c>
       <c r="J23">
-        <v>26.98052898086919</v>
+        <v>43.24536506807554</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>26.82901374968654</v>
       </c>
       <c r="L23">
         <v>0</v>
       </c>
-    </row>
-    <row r="24" spans="1:12">
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.90104506405619</v>
+        <v>25.77402618714513</v>
       </c>
       <c r="C24">
-        <v>23.83677301023215</v>
+        <v>23.68170826546197</v>
       </c>
       <c r="D24">
-        <v>7.388565266971157</v>
+        <v>7.469031427740333</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>49.64950181406405</v>
+        <v>49.54338111689946</v>
       </c>
       <c r="G24">
-        <v>0</v>
+        <v>2.000245894007183</v>
       </c>
       <c r="H24">
-        <v>26.96873142094687</v>
+        <v>0</v>
       </c>
       <c r="I24">
-        <v>38.96198195523471</v>
+        <v>27.03499522611043</v>
       </c>
       <c r="J24">
-        <v>24.678160336371</v>
+        <v>38.85671672418278</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>24.53577573948647</v>
       </c>
       <c r="L24">
         <v>0</v>
       </c>
-    </row>
-    <row r="25" spans="1:12">
+      <c r="M24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.19174185883702</v>
+        <v>23.07420105046977</v>
       </c>
       <c r="C25">
-        <v>21.23820559240318</v>
+        <v>21.09678969309796</v>
       </c>
       <c r="D25">
-        <v>6.763494504045009</v>
+        <v>6.849715363936686</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>44.70239943902733</v>
+        <v>44.71743487473784</v>
       </c>
       <c r="G25">
-        <v>0</v>
+        <v>2.026970690431495</v>
       </c>
       <c r="H25">
-        <v>24.94555324594742</v>
+        <v>0</v>
       </c>
       <c r="I25">
-        <v>34.27646763037519</v>
+        <v>25.05523211548827</v>
       </c>
       <c r="J25">
-        <v>22.10518342394792</v>
+        <v>34.19229773982297</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>21.97124861115319</v>
       </c>
       <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:M25"/>
+  <dimension ref="A1:O25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1" spans="1:15">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -409,988 +409,1138 @@
       <c r="M1" s="1">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:13">
+      <c r="N1" s="1">
+        <v>12</v>
+      </c>
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>20.96875607308585</v>
+        <v>18.03320088870337</v>
       </c>
       <c r="C2">
-        <v>19.10105799769602</v>
+        <v>10.56663018565416</v>
       </c>
       <c r="D2">
-        <v>6.394565481682592</v>
+        <v>10.74123758367084</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>41.1888234826685</v>
+        <v>64.34898410420237</v>
       </c>
       <c r="G2">
-        <v>2.046417868408663</v>
+        <v>2.109942836692235</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>23.66906768234602</v>
+        <v>0</v>
       </c>
       <c r="J2">
-        <v>30.70629904266963</v>
+        <v>0</v>
       </c>
       <c r="K2">
-        <v>19.97853666982611</v>
+        <v>14.69588557017395</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>6.803960483209526</v>
       </c>
       <c r="M2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:13">
+        <v>11.7850785765566</v>
+      </c>
+      <c r="N2">
+        <v>0</v>
+      </c>
+      <c r="O2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>19.45911279207523</v>
+        <v>16.85202032712741</v>
       </c>
       <c r="C3">
-        <v>17.67961335595587</v>
+        <v>9.933881402746438</v>
       </c>
       <c r="D3">
-        <v>6.081937889220473</v>
+        <v>10.327477169509</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>38.78438867410771</v>
+        <v>60.80575515649061</v>
       </c>
       <c r="G3">
-        <v>2.059651353407526</v>
+        <v>2.123418203606658</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>22.76671291365226</v>
+        <v>0</v>
       </c>
       <c r="J3">
-        <v>28.27396092301472</v>
+        <v>0</v>
       </c>
       <c r="K3">
-        <v>18.55329531313168</v>
+        <v>13.59704815980562</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>6.716637959708538</v>
       </c>
       <c r="M3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:13">
+        <v>11.40171853448683</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>18.48884618430376</v>
+        <v>16.14776881131746</v>
       </c>
       <c r="C4">
-        <v>16.76989649202033</v>
+        <v>9.53315654402671</v>
       </c>
       <c r="D4">
-        <v>5.886905913788322</v>
+        <v>10.07017054654861</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>37.29992385339968</v>
+        <v>58.57501863149787</v>
       </c>
       <c r="G4">
-        <v>2.067854396227057</v>
+        <v>2.131827054837944</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>22.22940359432155</v>
+        <v>0</v>
       </c>
       <c r="J4">
-        <v>26.73667547069313</v>
+        <v>0</v>
       </c>
       <c r="K4">
-        <v>17.63878688326716</v>
+        <v>12.89266706307994</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>6.666199786977652</v>
       </c>
       <c r="M4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:13">
+        <v>11.17290976601279</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>18.08223027668418</v>
+        <v>15.85766381453375</v>
       </c>
       <c r="C5">
-        <v>16.38951142807284</v>
+        <v>9.366665127270252</v>
       </c>
       <c r="D5">
-        <v>5.806544967391311</v>
+        <v>9.96449978335106</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>36.69295915564816</v>
+        <v>57.65239025597333</v>
       </c>
       <c r="G5">
-        <v>2.071223189534889</v>
+        <v>2.135292265351341</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>22.01449890298785</v>
+        <v>0</v>
       </c>
       <c r="J5">
-        <v>26.09803598252366</v>
+        <v>0</v>
       </c>
       <c r="K5">
-        <v>17.25588491745616</v>
+        <v>12.59793947888622</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>6.646423869037508</v>
       </c>
       <c r="M5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>11.08136789072233</v>
+      </c>
+      <c r="N5">
+        <v>0</v>
+      </c>
+      <c r="O5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>18.01402521345965</v>
+        <v>15.80931110855834</v>
       </c>
       <c r="C6">
-        <v>16.3257546460617</v>
+        <v>9.338823459869749</v>
       </c>
       <c r="D6">
-        <v>5.793145109819408</v>
+        <v>9.946904307531208</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>36.59205483336182</v>
+        <v>57.4983803756985</v>
       </c>
       <c r="G6">
-        <v>2.071784317769557</v>
+        <v>2.135870114731273</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>21.97905527648075</v>
+        <v>0</v>
       </c>
       <c r="J6">
-        <v>25.99122371382664</v>
+        <v>0</v>
       </c>
       <c r="K6">
-        <v>17.19167760257287</v>
+        <v>12.54852985960826</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>6.64318648702017</v>
       </c>
       <c r="M6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>11.06627159889331</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>18.48340827314995</v>
+        <v>16.1438686593451</v>
       </c>
       <c r="C7">
-        <v>16.76480609893912</v>
+        <v>9.530924251912694</v>
       </c>
       <c r="D7">
-        <v>5.885825838387922</v>
+        <v>10.06874872387701</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>37.29174617371381</v>
+        <v>58.56263021877087</v>
       </c>
       <c r="G7">
-        <v>2.067899715799131</v>
+        <v>2.131873626079023</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>22.22648907455959</v>
+        <v>0</v>
       </c>
       <c r="J7">
-        <v>26.72811329973245</v>
+        <v>0</v>
       </c>
       <c r="K7">
-        <v>17.63366476367004</v>
+        <v>12.88872366406507</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>6.66592995887637</v>
       </c>
       <c r="M7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>11.17166825118598</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>20.45701776551477</v>
+        <v>17.59231360233887</v>
       </c>
       <c r="C8">
-        <v>18.61836867234481</v>
+        <v>10.35091228011342</v>
       </c>
       <c r="D8">
-        <v>6.287333066747743</v>
+        <v>10.59924513729923</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>40.36139793850769</v>
+        <v>63.1388425516524</v>
       </c>
       <c r="G8">
-        <v>2.050968840584263</v>
+        <v>2.114564061198552</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>23.35434998008139</v>
+        <v>0</v>
       </c>
       <c r="J8">
-        <v>29.87596459372928</v>
+        <v>0</v>
       </c>
       <c r="K8">
-        <v>19.49508370630641</v>
+        <v>14.32302934068077</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>6.773178879858416</v>
       </c>
       <c r="M8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>11.65155530644967</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>24.0004595689456</v>
+        <v>20.71630725235178</v>
       </c>
       <c r="C9">
-        <v>21.98014535104772</v>
+        <v>11.86894594373271</v>
       </c>
       <c r="D9">
-        <v>7.0574057088621</v>
+        <v>11.61458494048163</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>46.32939908522261</v>
+        <v>71.6731447044597</v>
       </c>
       <c r="G9">
-        <v>2.018035038600201</v>
+        <v>2.08145522943211</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>25.70969586302297</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>35.76550472760064</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>22.84985706848248</v>
+        <v>16.91127566898231</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>7.009766825666458</v>
       </c>
       <c r="M9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>12.64354937338627</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>26.4333918472846</v>
+        <v>22.88630104636553</v>
       </c>
       <c r="C10">
-        <v>24.31798107840445</v>
+        <v>12.94155857399812</v>
       </c>
       <c r="D10">
-        <v>7.627157278199446</v>
+        <v>12.34821152804588</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>50.84065416656287</v>
+        <v>77.68919120935621</v>
       </c>
       <c r="G10">
-        <v>1.993396117338676</v>
+        <v>2.057260400274636</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>27.55106958561531</v>
+        <v>0</v>
       </c>
       <c r="J10">
-        <v>40.03566380396637</v>
+        <v>0</v>
       </c>
       <c r="K10">
-        <v>25.16384141063631</v>
+        <v>18.69380090021368</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>7.201313173760004</v>
       </c>
       <c r="M10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>13.57651960374177</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>27.51165047831552</v>
+        <v>23.84956392270818</v>
       </c>
       <c r="C11">
-        <v>25.36316304483913</v>
+        <v>13.42376144966182</v>
       </c>
       <c r="D11">
-        <v>7.892369104594533</v>
+        <v>12.68044179458819</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>52.99206410991599</v>
+        <v>80.37865857684827</v>
       </c>
       <c r="G11">
-        <v>1.981906656795303</v>
+        <v>2.046179558445672</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>28.42143320694289</v>
+        <v>0</v>
       </c>
       <c r="J11">
-        <v>42.00312493716976</v>
+        <v>0</v>
       </c>
       <c r="K11">
-        <v>26.19253819395531</v>
+        <v>19.48358912484481</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>7.292773534559675</v>
       </c>
       <c r="M11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>14.13159777814162</v>
+      </c>
+      <c r="N11">
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>27.9168019961656</v>
+        <v>24.21138350894456</v>
       </c>
       <c r="C12">
-        <v>25.75747808963339</v>
+        <v>13.60590076358815</v>
       </c>
       <c r="D12">
-        <v>7.99431566701698</v>
+        <v>12.80617254757561</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>53.81006482950749</v>
+        <v>81.39128043289043</v>
       </c>
       <c r="G12">
-        <v>1.977494420053038</v>
+        <v>2.04196251805949</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>28.75680364159866</v>
+        <v>0</v>
       </c>
       <c r="J12">
-        <v>42.75619342747106</v>
+        <v>0</v>
       </c>
       <c r="K12">
-        <v>26.57961585199688</v>
+        <v>19.78009912050932</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>7.328077993452292</v>
       </c>
       <c r="M12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>14.33957713020703</v>
+      </c>
+      <c r="N12">
+        <v>0</v>
+      </c>
+      <c r="O12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>27.82966818385794</v>
+        <v>24.13358142924852</v>
       </c>
       <c r="C13">
-        <v>25.67259855033564</v>
+        <v>13.56668770660593</v>
       </c>
       <c r="D13">
-        <v>7.972279084983766</v>
+        <v>12.77909500438365</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>53.63369724496775</v>
+        <v>81.17343433705558</v>
       </c>
       <c r="G13">
-        <v>1.978447810278577</v>
+        <v>2.042871848364783</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>28.68429687996323</v>
+        <v>0</v>
       </c>
       <c r="J13">
-        <v>42.59356151211279</v>
+        <v>0</v>
       </c>
       <c r="K13">
-        <v>26.49634285887886</v>
+        <v>19.71634620381254</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>7.320443846338407</v>
       </c>
       <c r="M13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>14.29487866859449</v>
+      </c>
+      <c r="N13">
+        <v>0</v>
+      </c>
+      <c r="O13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>27.54503959126339</v>
+        <v>23.87938695687591</v>
       </c>
       <c r="C14">
-        <v>25.39562521664908</v>
+        <v>13.43875304611221</v>
       </c>
       <c r="D14">
-        <v>7.900721287264316</v>
+        <v>12.69078636195891</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>53.05927776916582</v>
+        <v>80.46207759362123</v>
       </c>
       <c r="G14">
-        <v>1.981545033658602</v>
+        <v>2.045833105348088</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>28.44890082698912</v>
+        <v>0</v>
       </c>
       <c r="J14">
-        <v>42.06488828333566</v>
+        <v>0</v>
       </c>
       <c r="K14">
-        <v>26.22442615303536</v>
+        <v>19.50803164248438</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>7.295664303140124</v>
       </c>
       <c r="M14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>14.14875101537955</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>27.37031686924057</v>
+        <v>23.72331784572456</v>
       </c>
       <c r="C15">
-        <v>25.22581950689033</v>
+        <v>13.36034143552229</v>
       </c>
       <c r="D15">
-        <v>7.85711111611848</v>
+        <v>12.63668943342043</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>52.70794901988138</v>
+        <v>80.02562701398503</v>
       </c>
       <c r="G15">
-        <v>1.983433441879369</v>
+        <v>2.047643895516106</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>28.30550579972044</v>
+        <v>0</v>
       </c>
       <c r="J15">
-        <v>41.74226506104722</v>
+        <v>0</v>
       </c>
       <c r="K15">
-        <v>26.05758172313916</v>
+        <v>19.3801140371374</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>7.280575037692298</v>
       </c>
       <c r="M15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>14.05896405597195</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>26.36242607189454</v>
+        <v>22.82290842147614</v>
       </c>
       <c r="C16">
-        <v>24.24939937818068</v>
+        <v>12.90995964053664</v>
       </c>
       <c r="D16">
-        <v>7.609996556855972</v>
+        <v>12.32648023343059</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>50.70036282613719</v>
+        <v>77.51255384446209</v>
       </c>
       <c r="G16">
-        <v>1.99413966436994</v>
+        <v>2.057982223259659</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>27.49493115382475</v>
+        <v>0</v>
       </c>
       <c r="J16">
-        <v>39.90793469275542</v>
+        <v>0</v>
       </c>
       <c r="K16">
-        <v>25.09620918177276</v>
+        <v>18.64180018426812</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>7.195426972592816</v>
       </c>
       <c r="M16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>13.53991741382998</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>25.73741041487552</v>
+        <v>22.26473650943894</v>
       </c>
       <c r="C17">
-        <v>23.64643576492747</v>
+        <v>12.63243402053659</v>
       </c>
       <c r="D17">
-        <v>7.460335417223221</v>
+        <v>12.13587897117947</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>49.47175038816545</v>
+        <v>75.95936261849752</v>
       </c>
       <c r="G17">
-        <v>2.000622444976064</v>
+        <v>2.064298610095193</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>27.00670167288401</v>
+        <v>0</v>
       </c>
       <c r="J17">
-        <v>38.79174971311184</v>
+        <v>0</v>
       </c>
       <c r="K17">
-        <v>24.50091928656684</v>
+        <v>18.18377566057219</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>7.144330585400237</v>
       </c>
       <c r="M17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>13.21723621963969</v>
+      </c>
+      <c r="N17">
+        <v>0</v>
+      </c>
+      <c r="O17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>25.37516786806712</v>
+        <v>21.94140870126637</v>
       </c>
       <c r="C18">
-        <v>23.29781851458457</v>
+        <v>12.47224334853709</v>
       </c>
       <c r="D18">
-        <v>7.374771792694612</v>
+        <v>12.02609854279563</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>48.78481206570557</v>
+        <v>75.06148439366936</v>
       </c>
       <c r="G18">
-        <v>2.004326256435749</v>
+        <v>2.067925323761689</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>26.72888107579243</v>
+        <v>0</v>
       </c>
       <c r="J18">
-        <v>38.15176313276613</v>
+        <v>0</v>
       </c>
       <c r="K18">
-        <v>24.15619909389849</v>
+        <v>17.9183148147941</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>7.115344961975019</v>
       </c>
       <c r="M18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>13.0661640135767</v>
+      </c>
+      <c r="N18">
+        <v>0</v>
+      </c>
+      <c r="O18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>25.25202183882567</v>
+        <v>21.83153025829502</v>
       </c>
       <c r="C19">
-        <v>23.17944180098403</v>
+        <v>12.4178984728608</v>
       </c>
       <c r="D19">
-        <v>7.345874199367218</v>
+        <v>11.98889914986808</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>48.56186345585239</v>
+        <v>74.75667631001365</v>
       </c>
       <c r="G19">
-        <v>2.005576570737448</v>
+        <v>2.069152468513938</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>26.63530347368367</v>
+        <v>0</v>
       </c>
       <c r="J19">
-        <v>37.93530773032357</v>
+        <v>0</v>
       </c>
       <c r="K19">
-        <v>24.03905785121004</v>
+        <v>17.82807484517629</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>7.105598938841913</v>
       </c>
       <c r="M19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>13.02756143645905</v>
+      </c>
+      <c r="N19">
+        <v>0</v>
+      </c>
+      <c r="O19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>25.80422303207347</v>
+        <v>22.32438783680658</v>
       </c>
       <c r="C20">
-        <v>23.71080206535371</v>
+        <v>12.66203318444213</v>
       </c>
       <c r="D20">
-        <v>7.476209583727153</v>
+        <v>12.15618361648734</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49.60248708562168</v>
+        <v>76.12516452967077</v>
       </c>
       <c r="G20">
-        <v>1.999935053449272</v>
+        <v>2.063626941230284</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>27.05835784013573</v>
+        <v>0</v>
       </c>
       <c r="J20">
-        <v>38.91033351528761</v>
+        <v>0</v>
       </c>
       <c r="K20">
-        <v>24.56452333541026</v>
+        <v>18.23273878818588</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>7.14972778542956</v>
       </c>
       <c r="M20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>13.25175551567095</v>
+      </c>
+      <c r="N20">
+        <v>0</v>
+      </c>
+      <c r="O20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>27.62871893172593</v>
+        <v>23.95412564129433</v>
       </c>
       <c r="C21">
-        <v>25.4770080006419</v>
+        <v>13.47633979332151</v>
       </c>
       <c r="D21">
-        <v>7.921691945828321</v>
+        <v>12.71672555890787</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>53.227884619718</v>
+        <v>80.67116903102355</v>
       </c>
       <c r="G21">
-        <v>1.980637170421862</v>
+        <v>2.044963972086704</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>28.51787481550135</v>
+        <v>0</v>
       </c>
       <c r="J21">
-        <v>42.21991118303752</v>
+        <v>0</v>
       </c>
       <c r="K21">
-        <v>26.30435245489377</v>
+        <v>19.56928419377534</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>7.302924023232678</v>
       </c>
       <c r="M21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>14.19172993945429</v>
+      </c>
+      <c r="N21">
+        <v>0</v>
+      </c>
+      <c r="O21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>28.80335420173218</v>
+        <v>25.00237734284088</v>
       </c>
       <c r="C22">
-        <v>26.62356081650204</v>
+        <v>14.00607643116382</v>
       </c>
       <c r="D22">
-        <v>8.222190726154386</v>
+        <v>13.08271384750291</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>55.61845030163983</v>
+        <v>83.60899294620029</v>
       </c>
       <c r="G22">
-        <v>1.967651900503269</v>
+        <v>2.032638295498735</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>29.50628452564256</v>
+        <v>0</v>
       </c>
       <c r="J22">
-        <v>44.43308515272795</v>
+        <v>0</v>
       </c>
       <c r="K22">
-        <v>27.42773262963227</v>
+        <v>20.42811664997427</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>7.406984759561908</v>
       </c>
       <c r="M22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>14.79330252060379</v>
+      </c>
+      <c r="N22">
+        <v>0</v>
+      </c>
+      <c r="O22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>28.17767126800159</v>
+        <v>24.44426181552801</v>
       </c>
       <c r="C23">
-        <v>26.01185298814125</v>
+        <v>13.72343117151789</v>
       </c>
       <c r="D23">
-        <v>8.060665879545013</v>
+        <v>12.88735537804897</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>54.33954973523528</v>
+        <v>82.04366094370685</v>
       </c>
       <c r="G23">
-        <v>1.974625268475214</v>
+        <v>2.039232364513902</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>28.97512187619701</v>
+        <v>0</v>
       </c>
       <c r="J23">
-        <v>43.24536506807554</v>
+        <v>0</v>
       </c>
       <c r="K23">
-        <v>26.82901374968654</v>
+        <v>19.97090864613815</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>7.351066390393426</v>
       </c>
       <c r="M23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>14.47329353698962</v>
+      </c>
+      <c r="N23">
+        <v>0</v>
+      </c>
+      <c r="O23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>25.77402618714513</v>
+        <v>22.29742706764264</v>
       </c>
       <c r="C24">
-        <v>23.68170826546197</v>
+        <v>12.64865341448914</v>
       </c>
       <c r="D24">
-        <v>7.469031427740333</v>
+        <v>12.14700452291965</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>49.54338111689946</v>
+        <v>76.05022090451114</v>
       </c>
       <c r="G24">
-        <v>2.000245894007183</v>
+        <v>2.06393061649625</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>27.03499522611043</v>
+        <v>0</v>
       </c>
       <c r="J24">
-        <v>38.85671672418278</v>
+        <v>0</v>
       </c>
       <c r="K24">
-        <v>24.53577573948647</v>
+        <v>18.21060924685953</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>7.147286498882867</v>
       </c>
       <c r="M24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>13.23615477740444</v>
+      </c>
+      <c r="N24">
+        <v>0</v>
+      </c>
+      <c r="O24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>23.07420105046977</v>
+        <v>19.89328888565134</v>
       </c>
       <c r="C25">
-        <v>21.09678969309796</v>
+        <v>11.46679719564047</v>
       </c>
       <c r="D25">
-        <v>6.849715363936686</v>
+        <v>11.34237256114767</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>44.71743487473784</v>
+        <v>69.41084151560182</v>
       </c>
       <c r="G25">
-        <v>2.026970690431495</v>
+        <v>2.090358536395551</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>25.05523211548827</v>
+        <v>0</v>
       </c>
       <c r="J25">
-        <v>34.19229773982297</v>
+        <v>0</v>
       </c>
       <c r="K25">
-        <v>21.97124861115319</v>
+        <v>16.23341997804555</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>6.942789298371343</v>
       </c>
       <c r="M25">
+        <v>12.36982682488556</v>
+      </c>
+      <c r="N25">
+        <v>0</v>
+      </c>
+      <c r="O25">
         <v>0</v>
       </c>
     </row>

--- a/Code/Results/Cases/Case_3_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_line/loading_percent.xlsx
@@ -421,46 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>18.03320088870337</v>
+        <v>25.03329301494385</v>
       </c>
       <c r="C2">
-        <v>10.56663018565416</v>
+        <v>18.28693089288134</v>
       </c>
       <c r="D2">
-        <v>10.74123758367084</v>
-      </c>
-      <c r="E2">
-        <v>0</v>
+        <v>5.067741131281695</v>
       </c>
       <c r="F2">
-        <v>64.34898410420237</v>
+        <v>11.90140737659149</v>
       </c>
       <c r="G2">
-        <v>2.109942836692235</v>
+        <v>2.055667346669921</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>0</v>
-      </c>
-      <c r="J2">
-        <v>0</v>
+        <v>7.784723466422623</v>
       </c>
       <c r="K2">
-        <v>14.69588557017395</v>
-      </c>
-      <c r="L2">
-        <v>6.803960483209526</v>
-      </c>
-      <c r="M2">
-        <v>11.7850785765566</v>
+        <v>0</v>
       </c>
       <c r="N2">
         <v>0</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>8.847717772916745</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -468,46 +456,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>16.85202032712741</v>
+        <v>23.42384860076023</v>
       </c>
       <c r="C3">
-        <v>9.933881402746438</v>
+        <v>17.16550415697815</v>
       </c>
       <c r="D3">
-        <v>10.327477169509</v>
-      </c>
-      <c r="E3">
-        <v>0</v>
+        <v>4.809822045799947</v>
       </c>
       <c r="F3">
-        <v>60.80575515649061</v>
+        <v>11.73657246156519</v>
       </c>
       <c r="G3">
-        <v>2.123418203606658</v>
+        <v>2.060573316000071</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>0</v>
-      </c>
-      <c r="J3">
-        <v>0</v>
+        <v>8.273742761226618</v>
       </c>
       <c r="K3">
-        <v>13.59704815980562</v>
-      </c>
-      <c r="L3">
-        <v>6.716637959708538</v>
-      </c>
-      <c r="M3">
-        <v>11.40171853448683</v>
+        <v>0</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>0</v>
+        <v>9.037496418927129</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -515,46 +491,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>16.14776881131746</v>
+        <v>22.37776000789268</v>
       </c>
       <c r="C4">
-        <v>9.53315654402671</v>
+        <v>16.43851834471813</v>
       </c>
       <c r="D4">
-        <v>10.07017054654861</v>
-      </c>
-      <c r="E4">
-        <v>0</v>
+        <v>4.644100024721216</v>
       </c>
       <c r="F4">
-        <v>58.57501863149787</v>
+        <v>11.66336242556253</v>
       </c>
       <c r="G4">
-        <v>2.131827054837944</v>
+        <v>2.063673037028463</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>0</v>
-      </c>
-      <c r="J4">
-        <v>0</v>
+        <v>8.581699327724751</v>
       </c>
       <c r="K4">
-        <v>12.89266706307994</v>
-      </c>
-      <c r="L4">
-        <v>6.666199786977652</v>
-      </c>
-      <c r="M4">
-        <v>11.17290976601279</v>
+        <v>0</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>0</v>
+        <v>9.175675378165222</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -562,46 +526,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>15.85766381453375</v>
+        <v>21.9369025195531</v>
       </c>
       <c r="C5">
-        <v>9.366665127270252</v>
+        <v>16.13265867836601</v>
       </c>
       <c r="D5">
-        <v>9.96449978335106</v>
-      </c>
-      <c r="E5">
-        <v>0</v>
+        <v>4.574762938228085</v>
       </c>
       <c r="F5">
-        <v>57.65239025597333</v>
+        <v>11.64032825293234</v>
       </c>
       <c r="G5">
-        <v>2.135292265351341</v>
+        <v>2.06495874061893</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>0</v>
-      </c>
-      <c r="J5">
-        <v>0</v>
+        <v>8.70918418692326</v>
       </c>
       <c r="K5">
-        <v>12.59793947888622</v>
-      </c>
-      <c r="L5">
-        <v>6.646423869037508</v>
-      </c>
-      <c r="M5">
-        <v>11.08136789072233</v>
+        <v>0</v>
       </c>
       <c r="N5">
         <v>0</v>
       </c>
       <c r="O5">
-        <v>0</v>
+        <v>9.236996844929491</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -609,46 +561,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>15.80931110855834</v>
+        <v>21.86281856679783</v>
       </c>
       <c r="C6">
-        <v>9.338823459869749</v>
+        <v>16.08129276979719</v>
       </c>
       <c r="D6">
-        <v>9.946904307531208</v>
-      </c>
-      <c r="E6">
-        <v>0</v>
+        <v>4.563142157741719</v>
       </c>
       <c r="F6">
-        <v>57.4983803756985</v>
+        <v>11.63690612958504</v>
       </c>
       <c r="G6">
-        <v>2.135870114731273</v>
+        <v>2.065173607976121</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>0</v>
-      </c>
-      <c r="J6">
-        <v>0</v>
+        <v>8.730474695519893</v>
       </c>
       <c r="K6">
-        <v>12.54852985960826</v>
-      </c>
-      <c r="L6">
-        <v>6.64318648702017</v>
-      </c>
-      <c r="M6">
-        <v>11.06627159889331</v>
+        <v>0</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0</v>
+        <v>9.247469881341546</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -656,46 +596,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>16.1438686593451</v>
+        <v>22.37187343942268</v>
       </c>
       <c r="C7">
-        <v>9.530924251912694</v>
+        <v>16.43443222225206</v>
       </c>
       <c r="D7">
-        <v>10.06874872387701</v>
-      </c>
-      <c r="E7">
-        <v>0</v>
+        <v>4.643172156514835</v>
       </c>
       <c r="F7">
-        <v>58.56263021877087</v>
+        <v>11.66302460206803</v>
       </c>
       <c r="G7">
-        <v>2.131873626079023</v>
+        <v>2.063690284487227</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>0</v>
-      </c>
-      <c r="J7">
-        <v>0</v>
+        <v>8.583410504945318</v>
       </c>
       <c r="K7">
-        <v>12.88872366406507</v>
-      </c>
-      <c r="L7">
-        <v>6.66592995887637</v>
-      </c>
-      <c r="M7">
-        <v>11.17166825118598</v>
+        <v>0</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0</v>
+        <v>9.176482636194505</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -703,46 +631,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>17.59231360233887</v>
+        <v>24.49035749895471</v>
       </c>
       <c r="C8">
-        <v>10.35091228011342</v>
+        <v>17.90826406638597</v>
       </c>
       <c r="D8">
-        <v>10.59924513729923</v>
-      </c>
-      <c r="E8">
-        <v>0</v>
+        <v>4.98036282270596</v>
       </c>
       <c r="F8">
-        <v>63.1388425516524</v>
+        <v>11.83863177861987</v>
       </c>
       <c r="G8">
-        <v>2.114564061198552</v>
+        <v>2.057341120628652</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>0</v>
-      </c>
-      <c r="J8">
-        <v>0</v>
+        <v>7.951773622979679</v>
       </c>
       <c r="K8">
-        <v>14.32302934068077</v>
-      </c>
-      <c r="L8">
-        <v>6.773178879858416</v>
-      </c>
-      <c r="M8">
-        <v>11.65155530644967</v>
+        <v>0</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0</v>
+        <v>8.908390094010604</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -750,46 +666,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>20.71630725235178</v>
+        <v>28.1868106824851</v>
       </c>
       <c r="C9">
-        <v>11.86894594373271</v>
+        <v>20.49225692319513</v>
       </c>
       <c r="D9">
-        <v>11.61458494048163</v>
-      </c>
-      <c r="E9">
-        <v>0</v>
+        <v>5.581626776099364</v>
       </c>
       <c r="F9">
-        <v>71.6731447044597</v>
+        <v>12.41315528236736</v>
       </c>
       <c r="G9">
-        <v>2.08145522943211</v>
+        <v>2.045557571025473</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>0</v>
-      </c>
-      <c r="J9">
-        <v>0</v>
+        <v>6.77158250640339</v>
       </c>
       <c r="K9">
-        <v>16.91127566898231</v>
-      </c>
-      <c r="L9">
-        <v>7.009766825666458</v>
-      </c>
-      <c r="M9">
-        <v>12.64354937338627</v>
+        <v>0</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0</v>
+        <v>8.575166333129172</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -797,46 +701,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>22.88630104636553</v>
+        <v>30.62629600596383</v>
       </c>
       <c r="C10">
-        <v>12.94155857399812</v>
+        <v>22.20360563940093</v>
       </c>
       <c r="D10">
-        <v>12.34821152804588</v>
-      </c>
-      <c r="E10">
-        <v>0</v>
+        <v>5.98525230276341</v>
       </c>
       <c r="F10">
-        <v>77.68919120935621</v>
+        <v>12.9825084326869</v>
       </c>
       <c r="G10">
-        <v>2.057260400274636</v>
+        <v>2.037267462804844</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>0</v>
-      </c>
-      <c r="J10">
-        <v>0</v>
+        <v>5.936236059404457</v>
       </c>
       <c r="K10">
-        <v>18.69380090021368</v>
-      </c>
-      <c r="L10">
-        <v>7.201313173760004</v>
-      </c>
-      <c r="M10">
-        <v>13.57651960374177</v>
+        <v>0</v>
       </c>
       <c r="N10">
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0</v>
+        <v>8.477253685053023</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -844,46 +736,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>23.84956392270818</v>
+        <v>31.67689602817632</v>
       </c>
       <c r="C11">
-        <v>13.42376144966182</v>
+        <v>22.94170298842561</v>
       </c>
       <c r="D11">
-        <v>12.68044179458819</v>
-      </c>
-      <c r="E11">
-        <v>0</v>
+        <v>6.160392356908002</v>
       </c>
       <c r="F11">
-        <v>80.37865857684827</v>
+        <v>13.27393277827794</v>
       </c>
       <c r="G11">
-        <v>2.046179558445672</v>
+        <v>2.033566492008686</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>0</v>
-      </c>
-      <c r="J11">
-        <v>0</v>
+        <v>5.562186997629291</v>
       </c>
       <c r="K11">
-        <v>19.48358912484481</v>
-      </c>
-      <c r="L11">
-        <v>7.292773534559675</v>
-      </c>
-      <c r="M11">
-        <v>14.13159777814162</v>
+        <v>0</v>
       </c>
       <c r="N11">
         <v>0</v>
       </c>
       <c r="O11">
-        <v>0</v>
+        <v>8.471018494570414</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -891,46 +771,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>24.21138350894456</v>
+        <v>32.06630182654448</v>
       </c>
       <c r="C12">
-        <v>13.60590076358815</v>
+        <v>23.21541893487693</v>
       </c>
       <c r="D12">
-        <v>12.80617254757561</v>
-      </c>
-      <c r="E12">
-        <v>0</v>
+        <v>6.2254848552644</v>
       </c>
       <c r="F12">
-        <v>81.39128043289043</v>
+        <v>13.38892752078566</v>
       </c>
       <c r="G12">
-        <v>2.04196251805949</v>
+        <v>2.032174309173385</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>0</v>
-      </c>
-      <c r="J12">
-        <v>0</v>
+        <v>5.42131972120875</v>
       </c>
       <c r="K12">
-        <v>19.78009912050932</v>
-      </c>
-      <c r="L12">
-        <v>7.328077993452292</v>
-      </c>
-      <c r="M12">
-        <v>14.33957713020703</v>
+        <v>0</v>
       </c>
       <c r="N12">
         <v>0</v>
       </c>
       <c r="O12">
-        <v>0</v>
+        <v>8.474668024796191</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -938,46 +806,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>24.13358142924852</v>
+        <v>31.98281022506996</v>
       </c>
       <c r="C13">
-        <v>13.56668770660593</v>
+        <v>23.15672613617157</v>
       </c>
       <c r="D13">
-        <v>12.77909500438365</v>
-      </c>
-      <c r="E13">
-        <v>0</v>
+        <v>6.211520822695092</v>
       </c>
       <c r="F13">
-        <v>81.17343433705558</v>
+        <v>13.36395574487479</v>
       </c>
       <c r="G13">
-        <v>2.042871848364783</v>
+        <v>2.032473740718069</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>0</v>
-      </c>
-      <c r="J13">
-        <v>0</v>
+        <v>5.451624771848866</v>
       </c>
       <c r="K13">
-        <v>19.71634620381254</v>
-      </c>
-      <c r="L13">
-        <v>7.320443846338407</v>
-      </c>
-      <c r="M13">
-        <v>14.29487866859449</v>
+        <v>0</v>
       </c>
       <c r="N13">
         <v>0</v>
       </c>
       <c r="O13">
-        <v>0</v>
+        <v>8.473607132435859</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -985,46 +841,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>23.87938695687591</v>
+        <v>31.70910127625636</v>
       </c>
       <c r="C14">
-        <v>13.43875304611221</v>
+        <v>22.96433754235808</v>
       </c>
       <c r="D14">
-        <v>12.69078636195891</v>
-      </c>
-      <c r="E14">
-        <v>0</v>
+        <v>6.165772239886667</v>
       </c>
       <c r="F14">
-        <v>80.46207759362123</v>
+        <v>13.28330074586289</v>
       </c>
       <c r="G14">
-        <v>2.045833105348088</v>
+        <v>2.033451774830273</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>0</v>
-      </c>
-      <c r="J14">
-        <v>0</v>
+        <v>5.550582662916477</v>
       </c>
       <c r="K14">
-        <v>19.50803164248438</v>
-      </c>
-      <c r="L14">
-        <v>7.295664303140124</v>
-      </c>
-      <c r="M14">
-        <v>14.14875101537955</v>
+        <v>0</v>
       </c>
       <c r="N14">
         <v>0</v>
       </c>
       <c r="O14">
-        <v>0</v>
+        <v>8.471195542433014</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -1032,46 +876,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>23.72331784572456</v>
+        <v>31.54035052149554</v>
       </c>
       <c r="C15">
-        <v>13.36034143552229</v>
+        <v>22.84574140933094</v>
       </c>
       <c r="D15">
-        <v>12.63668943342043</v>
-      </c>
-      <c r="E15">
-        <v>0</v>
+        <v>6.137589573643861</v>
       </c>
       <c r="F15">
-        <v>80.02562701398503</v>
+        <v>13.23450007842346</v>
       </c>
       <c r="G15">
-        <v>2.047643895516106</v>
+        <v>2.034052034505579</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>0</v>
-      </c>
-      <c r="J15">
-        <v>0</v>
+        <v>5.611295972832549</v>
       </c>
       <c r="K15">
-        <v>19.3801140371374</v>
-      </c>
-      <c r="L15">
-        <v>7.280575037692298</v>
-      </c>
-      <c r="M15">
-        <v>14.05896405597195</v>
+        <v>0</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0</v>
+        <v>8.470515395985329</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -1079,46 +911,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>22.82290842147614</v>
+        <v>30.55645270265375</v>
       </c>
       <c r="C16">
-        <v>12.90995964053664</v>
+        <v>22.15455810407439</v>
       </c>
       <c r="D16">
-        <v>12.32648023343059</v>
-      </c>
-      <c r="E16">
-        <v>0</v>
+        <v>5.973634977229731</v>
       </c>
       <c r="F16">
-        <v>77.51255384446209</v>
+        <v>12.96411432159833</v>
       </c>
       <c r="G16">
-        <v>2.057982223259659</v>
+        <v>2.037510675726676</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>0</v>
-      </c>
-      <c r="J16">
-        <v>0</v>
+        <v>5.960794207160655</v>
       </c>
       <c r="K16">
-        <v>18.64180018426812</v>
-      </c>
-      <c r="L16">
-        <v>7.195426972592816</v>
-      </c>
-      <c r="M16">
-        <v>13.53991741382998</v>
+        <v>0</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0</v>
+        <v>8.478475734746244</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -1126,46 +946,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>22.26473650943894</v>
+        <v>29.93776504708415</v>
       </c>
       <c r="C17">
-        <v>12.63243402053659</v>
+        <v>21.7202056959473</v>
       </c>
       <c r="D17">
-        <v>12.13587897117947</v>
-      </c>
-      <c r="E17">
-        <v>0</v>
+        <v>5.870875151142011</v>
       </c>
       <c r="F17">
-        <v>75.95936261849752</v>
+        <v>12.80653958765818</v>
       </c>
       <c r="G17">
-        <v>2.064298610095193</v>
+        <v>2.039649874144194</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>0</v>
-      </c>
-      <c r="J17">
-        <v>0</v>
+        <v>6.176670351751054</v>
       </c>
       <c r="K17">
-        <v>18.18377566057219</v>
-      </c>
-      <c r="L17">
-        <v>7.144330585400237</v>
-      </c>
-      <c r="M17">
-        <v>13.21723621963969</v>
+        <v>0</v>
       </c>
       <c r="N17">
         <v>0</v>
       </c>
       <c r="O17">
-        <v>0</v>
+        <v>8.493538208669682</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -1173,46 +981,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>21.94140870126637</v>
+        <v>29.57634165625935</v>
       </c>
       <c r="C18">
-        <v>12.47224334853709</v>
+        <v>21.46657259820785</v>
       </c>
       <c r="D18">
-        <v>12.02609854279563</v>
-      </c>
-      <c r="E18">
-        <v>0</v>
+        <v>5.810973425278615</v>
       </c>
       <c r="F18">
-        <v>75.06148439366936</v>
+        <v>12.71896241867187</v>
       </c>
       <c r="G18">
-        <v>2.067925323761689</v>
+        <v>2.040886947336851</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>0</v>
-      </c>
-      <c r="J18">
-        <v>0</v>
+        <v>6.301402088965149</v>
       </c>
       <c r="K18">
-        <v>17.9183148147941</v>
-      </c>
-      <c r="L18">
-        <v>7.115344961975019</v>
-      </c>
-      <c r="M18">
-        <v>13.0661640135767</v>
+        <v>0</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0</v>
+        <v>8.505778740728523</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1220,46 +1016,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>21.83153025829502</v>
+        <v>29.45301113486603</v>
       </c>
       <c r="C19">
-        <v>12.4178984728608</v>
+        <v>21.38004266497154</v>
       </c>
       <c r="D19">
-        <v>11.98889914986808</v>
-      </c>
-      <c r="E19">
-        <v>0</v>
+        <v>5.790555256589914</v>
       </c>
       <c r="F19">
-        <v>74.75667631001365</v>
+        <v>12.68983527706474</v>
       </c>
       <c r="G19">
-        <v>2.069152468513938</v>
+        <v>2.041306967083309</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>0</v>
-      </c>
-      <c r="J19">
-        <v>0</v>
+        <v>6.34373356375289</v>
       </c>
       <c r="K19">
-        <v>17.82807484517629</v>
-      </c>
-      <c r="L19">
-        <v>7.105598938841913</v>
-      </c>
-      <c r="M19">
-        <v>13.02756143645905</v>
+        <v>0</v>
       </c>
       <c r="N19">
         <v>0</v>
       </c>
       <c r="O19">
-        <v>0</v>
+        <v>8.510521657605958</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1267,46 +1051,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>22.32438783680658</v>
+        <v>30.0042014577904</v>
       </c>
       <c r="C20">
-        <v>12.66203318444213</v>
+        <v>21.76683691344964</v>
       </c>
       <c r="D20">
-        <v>12.15618361648734</v>
-      </c>
-      <c r="E20">
-        <v>0</v>
+        <v>5.881896689866426</v>
       </c>
       <c r="F20">
-        <v>76.12516452967077</v>
+        <v>12.82299750706893</v>
       </c>
       <c r="G20">
-        <v>2.063626941230284</v>
+        <v>2.039421468906019</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>0</v>
-      </c>
-      <c r="J20">
-        <v>0</v>
+        <v>6.153631998844299</v>
       </c>
       <c r="K20">
-        <v>18.23273878818588</v>
-      </c>
-      <c r="L20">
-        <v>7.14972778542956</v>
-      </c>
-      <c r="M20">
-        <v>13.25175551567095</v>
+        <v>0</v>
       </c>
       <c r="N20">
         <v>0</v>
       </c>
       <c r="O20">
-        <v>0</v>
+        <v>8.49156082264081</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1314,46 +1086,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>23.95412564129433</v>
+        <v>31.78972452578562</v>
       </c>
       <c r="C21">
-        <v>13.47633979332151</v>
+        <v>23.02100351361499</v>
       </c>
       <c r="D21">
-        <v>12.71672555890787</v>
-      </c>
-      <c r="E21">
-        <v>0</v>
+        <v>6.179243135792121</v>
       </c>
       <c r="F21">
-        <v>80.67116903102355</v>
+        <v>13.30686552574401</v>
       </c>
       <c r="G21">
-        <v>2.044963972086704</v>
+        <v>2.033164256956424</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>0</v>
-      </c>
-      <c r="J21">
-        <v>0</v>
+        <v>5.521495902336771</v>
       </c>
       <c r="K21">
-        <v>19.56928419377534</v>
-      </c>
-      <c r="L21">
-        <v>7.302924023232678</v>
-      </c>
-      <c r="M21">
-        <v>14.19172993945429</v>
+        <v>0</v>
       </c>
       <c r="N21">
         <v>0</v>
       </c>
       <c r="O21">
-        <v>0</v>
+        <v>8.471736947401771</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1361,46 +1121,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>25.00237734284088</v>
+        <v>32.90754649532134</v>
       </c>
       <c r="C22">
-        <v>14.00607643116382</v>
+        <v>23.80696895022201</v>
       </c>
       <c r="D22">
-        <v>13.08271384750291</v>
-      </c>
-      <c r="E22">
-        <v>0</v>
+        <v>6.366409069560448</v>
       </c>
       <c r="F22">
-        <v>83.60899294620029</v>
+        <v>13.65010797838891</v>
       </c>
       <c r="G22">
-        <v>2.032638295498735</v>
+        <v>2.029128567356809</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>0</v>
-      </c>
-      <c r="J22">
-        <v>0</v>
+        <v>5.112846611473967</v>
       </c>
       <c r="K22">
-        <v>20.42811664997427</v>
-      </c>
-      <c r="L22">
-        <v>7.406984759561908</v>
-      </c>
-      <c r="M22">
-        <v>14.79330252060379</v>
+        <v>0</v>
       </c>
       <c r="N22">
         <v>0</v>
       </c>
       <c r="O22">
-        <v>0</v>
+        <v>8.494016978557561</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1408,46 +1156,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>24.44426181552801</v>
+        <v>32.31541361991862</v>
       </c>
       <c r="C23">
-        <v>13.72343117151789</v>
+        <v>23.39055807461893</v>
       </c>
       <c r="D23">
-        <v>12.88735537804897</v>
-      </c>
-      <c r="E23">
-        <v>0</v>
+        <v>6.267173456140146</v>
       </c>
       <c r="F23">
-        <v>82.04366094370685</v>
+        <v>13.46445734314931</v>
       </c>
       <c r="G23">
-        <v>2.039232364513902</v>
+        <v>2.031277852980859</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>0</v>
-      </c>
-      <c r="J23">
-        <v>0</v>
+        <v>5.330567348341218</v>
       </c>
       <c r="K23">
-        <v>19.97090864613815</v>
-      </c>
-      <c r="L23">
-        <v>7.351066390393426</v>
-      </c>
-      <c r="M23">
-        <v>14.47329353698962</v>
+        <v>0</v>
       </c>
       <c r="N23">
         <v>0</v>
       </c>
       <c r="O23">
-        <v>0</v>
+        <v>8.478746639097759</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1455,46 +1191,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>22.29742706764264</v>
+        <v>29.97418341442122</v>
       </c>
       <c r="C24">
-        <v>12.64865341448914</v>
+        <v>21.74576714582028</v>
       </c>
       <c r="D24">
-        <v>12.14700452291965</v>
-      </c>
-      <c r="E24">
-        <v>0</v>
+        <v>5.876916417065622</v>
       </c>
       <c r="F24">
-        <v>76.05022090451114</v>
+        <v>12.81554749026334</v>
       </c>
       <c r="G24">
-        <v>2.06393061649625</v>
+        <v>2.039524708366794</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>0</v>
-      </c>
-      <c r="J24">
-        <v>0</v>
+        <v>6.164045695915261</v>
       </c>
       <c r="K24">
-        <v>18.21060924685953</v>
-      </c>
-      <c r="L24">
-        <v>7.147286498882867</v>
-      </c>
-      <c r="M24">
-        <v>13.23615477740444</v>
+        <v>0</v>
       </c>
       <c r="N24">
         <v>0</v>
       </c>
       <c r="O24">
-        <v>0</v>
+        <v>8.492443683810755</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1502,46 +1226,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>19.89328888565134</v>
+        <v>27.23558845749235</v>
       </c>
       <c r="C25">
-        <v>11.46679719564047</v>
+        <v>19.82610147523193</v>
       </c>
       <c r="D25">
-        <v>11.34237256114767</v>
-      </c>
-      <c r="E25">
-        <v>0</v>
+        <v>5.425576616999575</v>
       </c>
       <c r="F25">
-        <v>69.41084151560182</v>
+        <v>12.23217235959697</v>
       </c>
       <c r="G25">
-        <v>2.090358536395551</v>
+        <v>2.048677841321903</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>0</v>
-      </c>
-      <c r="J25">
-        <v>0</v>
+        <v>7.084986064726244</v>
       </c>
       <c r="K25">
-        <v>16.23341997804555</v>
-      </c>
-      <c r="L25">
-        <v>6.942789298371343</v>
-      </c>
-      <c r="M25">
-        <v>12.36982682488556</v>
+        <v>0</v>
       </c>
       <c r="N25">
         <v>0</v>
       </c>
       <c r="O25">
-        <v>0</v>
+        <v>8.641700881912023</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.03329301494385</v>
+        <v>15.10543283814906</v>
       </c>
       <c r="C2">
-        <v>18.28693089288134</v>
+        <v>10.91693200572579</v>
       </c>
       <c r="D2">
-        <v>5.067741131281695</v>
+        <v>4.025549227329006</v>
       </c>
       <c r="F2">
-        <v>11.90140737659149</v>
+        <v>17.68455412667648</v>
       </c>
       <c r="G2">
-        <v>2.055667346669921</v>
+        <v>3.59091937022017</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>7.784723466422623</v>
+        <v>15.46549118450062</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>8.847717772916745</v>
+        <v>15.96531596457525</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,25 +456,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.42384860076023</v>
+        <v>14.25381441812363</v>
       </c>
       <c r="C3">
-        <v>17.16550415697815</v>
+        <v>10.29545017817815</v>
       </c>
       <c r="D3">
-        <v>4.809822045799947</v>
+        <v>3.916733090458262</v>
       </c>
       <c r="F3">
-        <v>11.73657246156519</v>
+        <v>17.80338077094061</v>
       </c>
       <c r="G3">
-        <v>2.060573316000071</v>
+        <v>3.592737965206635</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>8.273742761226618</v>
+        <v>15.63547274004895</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>9.037496418927129</v>
+        <v>16.11051273167243</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,25 +491,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.37776000789268</v>
+        <v>13.70282031065429</v>
       </c>
       <c r="C4">
-        <v>16.43851834471813</v>
+        <v>9.892631557122902</v>
       </c>
       <c r="D4">
-        <v>4.644100024721216</v>
+        <v>3.847973633172853</v>
       </c>
       <c r="F4">
-        <v>11.66336242556253</v>
+        <v>17.88481039133162</v>
       </c>
       <c r="G4">
-        <v>2.063673037028463</v>
+        <v>3.593912627017501</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>8.581699327724751</v>
+        <v>15.74501813683899</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>9.175675378165222</v>
+        <v>16.20577188881545</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.9369025195531</v>
+        <v>13.47135605031164</v>
       </c>
       <c r="C5">
-        <v>16.13265867836601</v>
+        <v>9.723221134638369</v>
       </c>
       <c r="D5">
-        <v>4.574762938228085</v>
+        <v>3.81949373327941</v>
       </c>
       <c r="F5">
-        <v>11.64032825293234</v>
+        <v>17.92010582801657</v>
       </c>
       <c r="G5">
-        <v>2.06495874061893</v>
+        <v>3.594405949919424</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>8.70918418692326</v>
+        <v>15.79096423570918</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>9.236996844929491</v>
+        <v>16.24612103784295</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,25 +561,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.86281856679783</v>
+        <v>13.43250761378878</v>
       </c>
       <c r="C6">
-        <v>16.08129276979719</v>
+        <v>9.694775739174849</v>
       </c>
       <c r="D6">
-        <v>4.563142157741719</v>
+        <v>3.814737796514466</v>
       </c>
       <c r="F6">
-        <v>11.63690612958504</v>
+        <v>17.92609366213862</v>
       </c>
       <c r="G6">
-        <v>2.065173607976121</v>
+        <v>3.594488751268458</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>8.730474695519893</v>
+        <v>15.79867251182958</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>9.247469881341546</v>
+        <v>16.25291324873805</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,25 +596,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.37187343942268</v>
+        <v>13.69972655948722</v>
       </c>
       <c r="C7">
-        <v>16.43443222225206</v>
+        <v>9.890368002618809</v>
       </c>
       <c r="D7">
-        <v>4.643172156514835</v>
+        <v>3.847591364739379</v>
       </c>
       <c r="F7">
-        <v>11.66302460206803</v>
+        <v>17.88527786909745</v>
       </c>
       <c r="G7">
-        <v>2.063690284487227</v>
+        <v>3.593919220812297</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>8.583410504945318</v>
+        <v>15.74563249106744</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>9.176482636194505</v>
+        <v>16.20630986278315</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,25 +631,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.49035749895471</v>
+        <v>14.81769866291513</v>
       </c>
       <c r="C8">
-        <v>17.90826406638597</v>
+        <v>10.70709240467504</v>
       </c>
       <c r="D8">
-        <v>4.98036282270596</v>
+        <v>3.988450287442977</v>
       </c>
       <c r="F8">
-        <v>11.83863177861987</v>
+        <v>17.72375723783713</v>
       </c>
       <c r="G8">
-        <v>2.057341120628652</v>
+        <v>3.591534403182032</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>7.951773622979679</v>
+        <v>15.52302889791615</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>8.908390094010604</v>
+        <v>16.01410873952816</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,25 +666,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.1868106824851</v>
+        <v>16.78252483080188</v>
       </c>
       <c r="C9">
-        <v>20.49225692319513</v>
+        <v>12.13764797638032</v>
       </c>
       <c r="D9">
-        <v>5.581626776099364</v>
+        <v>4.248052387865902</v>
       </c>
       <c r="F9">
-        <v>12.41315528236736</v>
+        <v>17.47498602283876</v>
       </c>
       <c r="G9">
-        <v>2.045557571025473</v>
+        <v>3.587316229632771</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>6.77158250640339</v>
+        <v>15.12739336362547</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>8.575166333129172</v>
+        <v>15.68592206340534</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,25 +701,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.62629600596383</v>
+        <v>18.08280603253113</v>
       </c>
       <c r="C10">
-        <v>22.20360563940093</v>
+        <v>13.08185620631934</v>
       </c>
       <c r="D10">
-        <v>5.98525230276341</v>
+        <v>4.427221484590204</v>
       </c>
       <c r="F10">
-        <v>12.9825084326869</v>
+        <v>17.33467288400696</v>
       </c>
       <c r="G10">
-        <v>2.037267462804844</v>
+        <v>3.584493733226143</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>5.936236059404457</v>
+        <v>14.86139244133518</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>8.477253685053023</v>
+        <v>15.47486766996478</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,25 +736,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.67689602817632</v>
+        <v>18.64260802373132</v>
       </c>
       <c r="C11">
-        <v>22.94170298842561</v>
+        <v>13.48787908287064</v>
       </c>
       <c r="D11">
-        <v>6.160392356908002</v>
+        <v>4.505960779322924</v>
       </c>
       <c r="F11">
-        <v>13.27393277827794</v>
+        <v>17.28026951940991</v>
       </c>
       <c r="G11">
-        <v>2.033566492008686</v>
+        <v>3.583269151809175</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>5.562186997629291</v>
+        <v>14.7456847632316</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>8.471018494570414</v>
+        <v>15.38546514279299</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,25 +771,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.06630182654448</v>
+        <v>18.84999635572084</v>
       </c>
       <c r="C12">
-        <v>23.21541893487693</v>
+        <v>13.63823211090986</v>
       </c>
       <c r="D12">
-        <v>6.2254848552644</v>
+        <v>4.535360681472108</v>
       </c>
       <c r="F12">
-        <v>13.38892752078566</v>
+        <v>17.26104016619515</v>
       </c>
       <c r="G12">
-        <v>2.032174309173385</v>
+        <v>3.582813928017558</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>5.42131972120875</v>
+        <v>14.70262698424277</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>8.474668024796191</v>
+        <v>15.35256831042284</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,25 +806,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.98281022506996</v>
+        <v>18.80553649236036</v>
       </c>
       <c r="C13">
-        <v>23.15672613617157</v>
+        <v>13.60600231295288</v>
       </c>
       <c r="D13">
-        <v>6.211520822695092</v>
+        <v>4.529047717295553</v>
       </c>
       <c r="F13">
-        <v>13.36395574487479</v>
+        <v>17.26512027344328</v>
       </c>
       <c r="G13">
-        <v>2.032473740718069</v>
+        <v>3.582911591278184</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>5.451624771848866</v>
+        <v>14.71186658230693</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>8.473607132435859</v>
+        <v>15.35961049790801</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,25 +841,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.70910127625636</v>
+        <v>18.65976228773348</v>
       </c>
       <c r="C14">
-        <v>22.96433754235808</v>
+        <v>13.50031692789402</v>
       </c>
       <c r="D14">
-        <v>6.165772239886667</v>
+        <v>4.508387986991902</v>
       </c>
       <c r="F14">
-        <v>13.28330074586289</v>
+        <v>17.27865991895068</v>
       </c>
       <c r="G14">
-        <v>2.033451774830273</v>
+        <v>3.583231530183558</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>5.550582662916477</v>
+        <v>14.74212719854345</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>8.471195542433014</v>
+        <v>15.38273945551171</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,25 +876,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.54035052149554</v>
+        <v>18.56987183007436</v>
       </c>
       <c r="C15">
-        <v>22.84574140933094</v>
+        <v>13.43513845388434</v>
       </c>
       <c r="D15">
-        <v>6.137589573643861</v>
+        <v>4.495678466217673</v>
       </c>
       <c r="F15">
-        <v>13.23450007842346</v>
+        <v>17.28713250144471</v>
       </c>
       <c r="G15">
-        <v>2.034052034505579</v>
+        <v>3.583428607557094</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>5.611295972832549</v>
+        <v>14.76076133547161</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>8.470515395985329</v>
+        <v>15.39703160333164</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,25 +911,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.55645270265375</v>
+        <v>18.04558025180255</v>
       </c>
       <c r="C16">
-        <v>22.15455810407439</v>
+        <v>13.05484692556494</v>
       </c>
       <c r="D16">
-        <v>5.973634977229731</v>
+        <v>4.422018343854603</v>
       </c>
       <c r="F16">
-        <v>12.96411432159833</v>
+        <v>17.33841937739593</v>
       </c>
       <c r="G16">
-        <v>2.037510675726676</v>
+        <v>3.584574953989031</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>5.960794207160655</v>
+        <v>14.86906050375885</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>8.478475734746244</v>
+        <v>15.48084395401528</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,25 +946,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.93776504708415</v>
+        <v>17.71579429489122</v>
       </c>
       <c r="C17">
-        <v>21.7202056959473</v>
+        <v>12.81551502654688</v>
       </c>
       <c r="D17">
-        <v>5.870875151142011</v>
+        <v>4.376107574826038</v>
       </c>
       <c r="F17">
-        <v>12.80653958765818</v>
+        <v>17.37230840836671</v>
       </c>
       <c r="G17">
-        <v>2.039649874144194</v>
+        <v>3.585293381343683</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>6.176670351751054</v>
+        <v>14.93685280234017</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>8.493538208669682</v>
+        <v>15.53395787458071</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,25 +981,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.57634165625935</v>
+        <v>17.52312765741285</v>
       </c>
       <c r="C18">
-        <v>21.46657259820785</v>
+        <v>12.67564622229494</v>
       </c>
       <c r="D18">
-        <v>5.810973425278615</v>
+        <v>4.349441625939582</v>
       </c>
       <c r="F18">
-        <v>12.71896241867187</v>
+        <v>17.39268672898159</v>
       </c>
       <c r="G18">
-        <v>2.040886947336851</v>
+        <v>3.585712193916136</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>6.301402088965149</v>
+        <v>14.97634397409608</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>8.505778740728523</v>
+        <v>15.5651290074761</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,25 +1016,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.45301113486603</v>
+        <v>17.45738312684662</v>
       </c>
       <c r="C19">
-        <v>21.38004266497154</v>
+        <v>12.62790993142101</v>
       </c>
       <c r="D19">
-        <v>5.790555256589914</v>
+        <v>4.340369079612126</v>
       </c>
       <c r="F19">
-        <v>12.68983527706474</v>
+        <v>17.39973817506346</v>
       </c>
       <c r="G19">
-        <v>2.041306967083309</v>
+        <v>3.585854958373241</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>6.34373356375289</v>
+        <v>14.9898007906843</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>8.510521657605958</v>
+        <v>15.57578951056198</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,25 +1051,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.0042014577904</v>
+        <v>17.75120955484799</v>
       </c>
       <c r="C20">
-        <v>21.76683691344964</v>
+        <v>12.84122135072608</v>
       </c>
       <c r="D20">
-        <v>5.881896689866426</v>
+        <v>4.381021835670222</v>
       </c>
       <c r="F20">
-        <v>12.82299750706893</v>
+        <v>17.3686090175752</v>
       </c>
       <c r="G20">
-        <v>2.039421468906019</v>
+        <v>3.585216325056208</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>6.153631998844299</v>
+        <v>14.92958459478561</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>8.49156082264081</v>
+        <v>15.52823943735401</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,25 +1086,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.78972452578562</v>
+        <v>18.70270470377172</v>
       </c>
       <c r="C21">
-        <v>23.02100351361499</v>
+        <v>13.53145166018312</v>
       </c>
       <c r="D21">
-        <v>6.179243135792121</v>
+        <v>4.514467710771606</v>
       </c>
       <c r="F21">
-        <v>13.30686552574401</v>
+        <v>17.27464563169832</v>
       </c>
       <c r="G21">
-        <v>2.033164256956424</v>
+        <v>3.583137326047663</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>5.521495902336771</v>
+        <v>14.73321837274998</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>8.471736947401771</v>
+        <v>15.37591985705403</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,25 +1121,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.90754649532134</v>
+        <v>19.29775903970291</v>
       </c>
       <c r="C22">
-        <v>23.80696895022201</v>
+        <v>13.96274006439345</v>
       </c>
       <c r="D22">
-        <v>6.366409069560448</v>
+        <v>4.599244339004692</v>
       </c>
       <c r="F22">
-        <v>13.65010797838891</v>
+        <v>17.22123951356166</v>
       </c>
       <c r="G22">
-        <v>2.029128567356809</v>
+        <v>3.581828097594416</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>5.112846611473967</v>
+        <v>14.60929947505194</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>8.494016978557561</v>
+        <v>15.28195780842555</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,25 +1156,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.31541361991862</v>
+        <v>18.98262969364763</v>
       </c>
       <c r="C23">
-        <v>23.39055807461893</v>
+        <v>13.73437146063489</v>
       </c>
       <c r="D23">
-        <v>6.267173456140146</v>
+        <v>4.554226404562328</v>
       </c>
       <c r="F23">
-        <v>13.46445734314931</v>
+        <v>17.24900565738522</v>
       </c>
       <c r="G23">
-        <v>2.031277852980859</v>
+        <v>3.58252234008862</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>5.330567348341218</v>
+        <v>14.67503426582817</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>8.478746639097759</v>
+        <v>15.33159318410413</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,25 +1191,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.97418341442122</v>
+        <v>17.73520786994236</v>
       </c>
       <c r="C24">
-        <v>21.74576714582028</v>
+        <v>12.82960660217913</v>
       </c>
       <c r="D24">
-        <v>5.876916417065622</v>
+        <v>4.378800941703216</v>
       </c>
       <c r="F24">
-        <v>12.81554749026334</v>
+        <v>17.37027872535326</v>
       </c>
       <c r="G24">
-        <v>2.039524708366794</v>
+        <v>3.58525114419854</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>6.164045695915261</v>
+        <v>14.93286894232612</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>8.492443683810755</v>
+        <v>15.53082276468477</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,25 +1226,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.23558845749235</v>
+        <v>16.27588966320838</v>
       </c>
       <c r="C25">
-        <v>19.82610147523193</v>
+        <v>11.76926332468754</v>
       </c>
       <c r="D25">
-        <v>5.425576616999575</v>
+        <v>4.179758405237664</v>
       </c>
       <c r="F25">
-        <v>12.23217235959697</v>
+        <v>17.53490124072817</v>
       </c>
       <c r="G25">
-        <v>2.048677841321903</v>
+        <v>3.588408576901134</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>7.084986064726244</v>
+        <v>15.23007220239142</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>8.641700881912023</v>
+        <v>15.76945294430498</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_line/loading_percent.xlsx
@@ -421,25 +421,25 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>15.10543283814906</v>
+        <v>25.03329301494382</v>
       </c>
       <c r="C2">
-        <v>10.91693200572579</v>
+        <v>18.28693089288132</v>
       </c>
       <c r="D2">
-        <v>4.025549227329006</v>
+        <v>5.067741131281688</v>
       </c>
       <c r="F2">
-        <v>17.68455412667648</v>
+        <v>11.90140737659159</v>
       </c>
       <c r="G2">
-        <v>3.59091937022017</v>
+        <v>2.055667346669921</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>15.46549118450062</v>
+        <v>7.784723466422689</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="O2">
-        <v>15.96531596457525</v>
+        <v>8.847717772916809</v>
       </c>
     </row>
     <row r="3" spans="1:15">
@@ -456,25 +456,25 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>14.25381441812363</v>
+        <v>23.42384860076021</v>
       </c>
       <c r="C3">
-        <v>10.29545017817815</v>
+        <v>17.16550415697828</v>
       </c>
       <c r="D3">
-        <v>3.916733090458262</v>
+        <v>4.809822045799918</v>
       </c>
       <c r="F3">
-        <v>17.80338077094061</v>
+        <v>11.73657246156537</v>
       </c>
       <c r="G3">
-        <v>3.592737965206635</v>
+        <v>2.060573316000204</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>15.63547274004895</v>
+        <v>8.27374276122675</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="O3">
-        <v>16.11051273167243</v>
+        <v>9.037496418927224</v>
       </c>
     </row>
     <row r="4" spans="1:15">
@@ -491,25 +491,25 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>13.70282031065429</v>
+        <v>22.37776000789269</v>
       </c>
       <c r="C4">
-        <v>9.892631557122902</v>
+        <v>16.43851834471804</v>
       </c>
       <c r="D4">
-        <v>3.847973633172853</v>
+        <v>4.644100024721272</v>
       </c>
       <c r="F4">
-        <v>17.88481039133162</v>
+        <v>11.66336242556265</v>
       </c>
       <c r="G4">
-        <v>3.593912627017501</v>
+        <v>2.063673037028464</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>15.74501813683899</v>
+        <v>8.58169932772485</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -518,7 +518,7 @@
         <v>0</v>
       </c>
       <c r="O4">
-        <v>16.20577188881545</v>
+        <v>9.17567537816535</v>
       </c>
     </row>
     <row r="5" spans="1:15">
@@ -526,25 +526,25 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>13.47135605031164</v>
+        <v>21.9369025195531</v>
       </c>
       <c r="C5">
-        <v>9.723221134638369</v>
+        <v>16.13265867836592</v>
       </c>
       <c r="D5">
-        <v>3.81949373327941</v>
+        <v>4.574762938228157</v>
       </c>
       <c r="F5">
-        <v>17.92010582801657</v>
+        <v>11.64032825293231</v>
       </c>
       <c r="G5">
-        <v>3.594405949919424</v>
+        <v>2.064958740618663</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>15.79096423570918</v>
+        <v>8.709184186923192</v>
       </c>
       <c r="K5">
         <v>0</v>
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="O5">
-        <v>16.24612103784295</v>
+        <v>9.236996844929504</v>
       </c>
     </row>
     <row r="6" spans="1:15">
@@ -561,25 +561,25 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>13.43250761378878</v>
+        <v>21.86281856679782</v>
       </c>
       <c r="C6">
-        <v>9.694775739174849</v>
+        <v>16.08129276979707</v>
       </c>
       <c r="D6">
-        <v>3.814737796514466</v>
+        <v>4.563142157741813</v>
       </c>
       <c r="F6">
-        <v>17.92609366213862</v>
+        <v>11.63690612958519</v>
       </c>
       <c r="G6">
-        <v>3.594488751268458</v>
+        <v>2.065173607976122</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>15.79867251182958</v>
+        <v>8.730474695520064</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -588,7 +588,7 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>16.25291324873805</v>
+        <v>9.247469881341734</v>
       </c>
     </row>
     <row r="7" spans="1:15">
@@ -596,25 +596,25 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>13.69972655948722</v>
+        <v>22.37187343942265</v>
       </c>
       <c r="C7">
-        <v>9.890368002618809</v>
+        <v>16.43443222225206</v>
       </c>
       <c r="D7">
-        <v>3.847591364739379</v>
+        <v>4.643172156514876</v>
       </c>
       <c r="F7">
-        <v>17.88527786909745</v>
+        <v>11.66302460206798</v>
       </c>
       <c r="G7">
-        <v>3.593919220812297</v>
+        <v>2.063690284487227</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>15.74563249106744</v>
+        <v>8.583410504945318</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -623,7 +623,7 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>16.20630986278315</v>
+        <v>9.176482636194507</v>
       </c>
     </row>
     <row r="8" spans="1:15">
@@ -631,25 +631,25 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>14.81769866291513</v>
+        <v>24.49035749895472</v>
       </c>
       <c r="C8">
-        <v>10.70709240467504</v>
+        <v>17.90826406638592</v>
       </c>
       <c r="D8">
-        <v>3.988450287442977</v>
+        <v>4.980362822706058</v>
       </c>
       <c r="F8">
-        <v>17.72375723783713</v>
+        <v>11.8386317786198</v>
       </c>
       <c r="G8">
-        <v>3.591534403182032</v>
+        <v>2.057341120628518</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>15.52302889791615</v>
+        <v>7.951773622979679</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>16.01410873952816</v>
+        <v>8.908390094010606</v>
       </c>
     </row>
     <row r="9" spans="1:15">
@@ -666,25 +666,25 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>16.78252483080188</v>
+        <v>28.18681068248516</v>
       </c>
       <c r="C9">
-        <v>12.13764797638032</v>
+        <v>20.49225692319509</v>
       </c>
       <c r="D9">
-        <v>4.248052387865902</v>
+        <v>5.581626776099313</v>
       </c>
       <c r="F9">
-        <v>17.47498602283876</v>
+        <v>12.41315528236735</v>
       </c>
       <c r="G9">
-        <v>3.587316229632771</v>
+        <v>2.045557571025339</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>15.12739336362547</v>
+        <v>6.771582506403255</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -693,7 +693,7 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>15.68592206340534</v>
+        <v>8.575166333129092</v>
       </c>
     </row>
     <row r="10" spans="1:15">
@@ -701,25 +701,25 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>18.08280603253113</v>
+        <v>30.62629600596383</v>
       </c>
       <c r="C10">
-        <v>13.08185620631934</v>
+        <v>22.20360563940103</v>
       </c>
       <c r="D10">
-        <v>4.427221484590204</v>
+        <v>5.985252302763342</v>
       </c>
       <c r="F10">
-        <v>17.33467288400696</v>
+        <v>12.98250843268686</v>
       </c>
       <c r="G10">
-        <v>3.584493733226143</v>
+        <v>2.037267462804977</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>14.86139244133518</v>
+        <v>5.936236059404457</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -728,7 +728,7 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>15.47486766996478</v>
+        <v>8.477253685052984</v>
       </c>
     </row>
     <row r="11" spans="1:15">
@@ -736,25 +736,25 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>18.64260802373132</v>
+        <v>31.6768960281763</v>
       </c>
       <c r="C11">
-        <v>13.48787908287064</v>
+        <v>22.94170298842558</v>
       </c>
       <c r="D11">
-        <v>4.505960779322924</v>
+        <v>6.160392356908013</v>
       </c>
       <c r="F11">
-        <v>17.28026951940991</v>
+        <v>13.27393277827797</v>
       </c>
       <c r="G11">
-        <v>3.583269151809175</v>
+        <v>2.033566492008418</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>14.7456847632316</v>
+        <v>5.56218699762929</v>
       </c>
       <c r="K11">
         <v>0</v>
@@ -763,7 +763,7 @@
         <v>0</v>
       </c>
       <c r="O11">
-        <v>15.38546514279299</v>
+        <v>8.47101849457049</v>
       </c>
     </row>
     <row r="12" spans="1:15">
@@ -771,25 +771,25 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>18.84999635572084</v>
+        <v>32.06630182654448</v>
       </c>
       <c r="C12">
-        <v>13.63823211090986</v>
+        <v>23.2154189348769</v>
       </c>
       <c r="D12">
-        <v>4.535360681472108</v>
+        <v>6.225484855264387</v>
       </c>
       <c r="F12">
-        <v>17.26104016619515</v>
+        <v>13.38892752078571</v>
       </c>
       <c r="G12">
-        <v>3.582813928017558</v>
+        <v>2.032174309173519</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>14.70262698424277</v>
+        <v>5.421319721208682</v>
       </c>
       <c r="K12">
         <v>0</v>
@@ -798,7 +798,7 @@
         <v>0</v>
       </c>
       <c r="O12">
-        <v>15.35256831042284</v>
+        <v>8.474668024796227</v>
       </c>
     </row>
     <row r="13" spans="1:15">
@@ -806,25 +806,25 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>18.80553649236036</v>
+        <v>31.98281022506995</v>
       </c>
       <c r="C13">
-        <v>13.60600231295288</v>
+        <v>23.15672613617149</v>
       </c>
       <c r="D13">
-        <v>4.529047717295553</v>
+        <v>6.211520822695134</v>
       </c>
       <c r="F13">
-        <v>17.26512027344328</v>
+        <v>13.36395574487487</v>
       </c>
       <c r="G13">
-        <v>3.582911591278184</v>
+        <v>2.032473740718068</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>14.71186658230693</v>
+        <v>5.451624771849001</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -833,7 +833,7 @@
         <v>0</v>
       </c>
       <c r="O13">
-        <v>15.35961049790801</v>
+        <v>8.47360713243596</v>
       </c>
     </row>
     <row r="14" spans="1:15">
@@ -841,25 +841,25 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>18.65976228773348</v>
+        <v>31.70910127625642</v>
       </c>
       <c r="C14">
-        <v>13.50031692789402</v>
+        <v>22.96433754235795</v>
       </c>
       <c r="D14">
-        <v>4.508387986991902</v>
+        <v>6.165772239886694</v>
       </c>
       <c r="F14">
-        <v>17.27865991895068</v>
+        <v>13.28330074586284</v>
       </c>
       <c r="G14">
-        <v>3.583231530183558</v>
+        <v>2.033451774830409</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>14.74212719854345</v>
+        <v>5.550582662916277</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -868,7 +868,7 @@
         <v>0</v>
       </c>
       <c r="O14">
-        <v>15.38273945551171</v>
+        <v>8.471195542432962</v>
       </c>
     </row>
     <row r="15" spans="1:15">
@@ -876,25 +876,25 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>18.56987183007436</v>
+        <v>31.54035052149559</v>
       </c>
       <c r="C15">
-        <v>13.43513845388434</v>
+        <v>22.84574140933087</v>
       </c>
       <c r="D15">
-        <v>4.495678466217673</v>
+        <v>6.137589573643782</v>
       </c>
       <c r="F15">
-        <v>17.28713250144471</v>
+        <v>13.23450007842349</v>
       </c>
       <c r="G15">
-        <v>3.583428607557094</v>
+        <v>2.034052034505714</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>14.76076133547161</v>
+        <v>5.611295972832314</v>
       </c>
       <c r="K15">
         <v>0</v>
@@ -903,7 +903,7 @@
         <v>0</v>
       </c>
       <c r="O15">
-        <v>15.39703160333164</v>
+        <v>8.470515395985313</v>
       </c>
     </row>
     <row r="16" spans="1:15">
@@ -911,25 +911,25 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>18.04558025180255</v>
+        <v>30.55645270265372</v>
       </c>
       <c r="C16">
-        <v>13.05484692556494</v>
+        <v>22.15455810407433</v>
       </c>
       <c r="D16">
-        <v>4.422018343854603</v>
+        <v>5.973634977229731</v>
       </c>
       <c r="F16">
-        <v>17.33841937739593</v>
+        <v>12.96411432159836</v>
       </c>
       <c r="G16">
-        <v>3.584574953989031</v>
+        <v>2.037510675726677</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>14.86906050375885</v>
+        <v>5.960794207160789</v>
       </c>
       <c r="K16">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="O16">
-        <v>15.48084395401528</v>
+        <v>8.478475734746322</v>
       </c>
     </row>
     <row r="17" spans="1:15">
@@ -946,25 +946,25 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>17.71579429489122</v>
+        <v>29.93776504708409</v>
       </c>
       <c r="C17">
-        <v>12.81551502654688</v>
+        <v>21.72020569594727</v>
       </c>
       <c r="D17">
-        <v>4.376107574826038</v>
+        <v>5.870875151142068</v>
       </c>
       <c r="F17">
-        <v>17.37230840836671</v>
+        <v>12.80653958765821</v>
       </c>
       <c r="G17">
-        <v>3.585293381343683</v>
+        <v>2.039649874144328</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>14.93685280234017</v>
+        <v>6.176670351751154</v>
       </c>
       <c r="K17">
         <v>0</v>
@@ -973,7 +973,7 @@
         <v>0</v>
       </c>
       <c r="O17">
-        <v>15.53395787458071</v>
+        <v>8.493538208669737</v>
       </c>
     </row>
     <row r="18" spans="1:15">
@@ -981,25 +981,25 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>17.52312765741285</v>
+        <v>29.57634165625934</v>
       </c>
       <c r="C18">
-        <v>12.67564622229494</v>
+        <v>21.46657259820774</v>
       </c>
       <c r="D18">
-        <v>4.349441625939582</v>
+        <v>5.810973425278599</v>
       </c>
       <c r="F18">
-        <v>17.39268672898159</v>
+        <v>12.71896241867194</v>
       </c>
       <c r="G18">
-        <v>3.585712193916136</v>
+        <v>2.040886947336852</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>14.97634397409608</v>
+        <v>6.301402088965147</v>
       </c>
       <c r="K18">
         <v>0</v>
@@ -1008,7 +1008,7 @@
         <v>0</v>
       </c>
       <c r="O18">
-        <v>15.5651290074761</v>
+        <v>8.505778740728624</v>
       </c>
     </row>
     <row r="19" spans="1:15">
@@ -1016,25 +1016,25 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>17.45738312684662</v>
+        <v>29.45301113486607</v>
       </c>
       <c r="C19">
-        <v>12.62790993142101</v>
+        <v>21.38004266497154</v>
       </c>
       <c r="D19">
-        <v>4.340369079612126</v>
+        <v>5.790555256589865</v>
       </c>
       <c r="F19">
-        <v>17.39973817506346</v>
+        <v>12.68983527706468</v>
       </c>
       <c r="G19">
-        <v>3.585854958373241</v>
+        <v>2.041306967083709</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>14.9898007906843</v>
+        <v>6.343733563752689</v>
       </c>
       <c r="K19">
         <v>0</v>
@@ -1043,7 +1043,7 @@
         <v>0</v>
       </c>
       <c r="O19">
-        <v>15.57578951056198</v>
+        <v>8.510521657605826</v>
       </c>
     </row>
     <row r="20" spans="1:15">
@@ -1051,25 +1051,25 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>17.75120955484799</v>
+        <v>30.0042014577904</v>
       </c>
       <c r="C20">
-        <v>12.84122135072608</v>
+        <v>21.76683691344969</v>
       </c>
       <c r="D20">
-        <v>4.381021835670222</v>
+        <v>5.881896689866376</v>
       </c>
       <c r="F20">
-        <v>17.3686090175752</v>
+        <v>12.8229975070689</v>
       </c>
       <c r="G20">
-        <v>3.585216325056208</v>
+        <v>2.039421468906018</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>14.92958459478561</v>
+        <v>6.153631998844299</v>
       </c>
       <c r="K20">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="O20">
-        <v>15.52823943735401</v>
+        <v>8.49156082264077</v>
       </c>
     </row>
     <row r="21" spans="1:15">
@@ -1086,25 +1086,25 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>18.70270470377172</v>
+        <v>31.78972452578572</v>
       </c>
       <c r="C21">
-        <v>13.53145166018312</v>
+        <v>23.02100351361499</v>
       </c>
       <c r="D21">
-        <v>4.514467710771606</v>
+        <v>6.179243135792087</v>
       </c>
       <c r="F21">
-        <v>17.27464563169832</v>
+        <v>13.30686552574396</v>
       </c>
       <c r="G21">
-        <v>3.583137326047663</v>
+        <v>2.033164256956692</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>14.73321837274998</v>
+        <v>5.521495902336537</v>
       </c>
       <c r="K21">
         <v>0</v>
@@ -1113,7 +1113,7 @@
         <v>0</v>
       </c>
       <c r="O21">
-        <v>15.37591985705403</v>
+        <v>8.47173694740165</v>
       </c>
     </row>
     <row r="22" spans="1:15">
@@ -1121,25 +1121,25 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>19.29775903970291</v>
+        <v>32.90754649532139</v>
       </c>
       <c r="C22">
-        <v>13.96274006439345</v>
+        <v>23.80696895022201</v>
       </c>
       <c r="D22">
-        <v>4.599244339004692</v>
+        <v>6.366409069560388</v>
       </c>
       <c r="F22">
-        <v>17.22123951356166</v>
+        <v>13.65010797838892</v>
       </c>
       <c r="G22">
-        <v>3.581828097594416</v>
+        <v>2.029128567357078</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>14.60929947505194</v>
+        <v>5.112846611473833</v>
       </c>
       <c r="K22">
         <v>0</v>
@@ -1148,7 +1148,7 @@
         <v>0</v>
       </c>
       <c r="O22">
-        <v>15.28195780842555</v>
+        <v>8.494016978557516</v>
       </c>
     </row>
     <row r="23" spans="1:15">
@@ -1156,25 +1156,25 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>18.98262969364763</v>
+        <v>32.3154136199186</v>
       </c>
       <c r="C23">
-        <v>13.73437146063489</v>
+        <v>23.39055807461888</v>
       </c>
       <c r="D23">
-        <v>4.554226404562328</v>
+        <v>6.267173456140232</v>
       </c>
       <c r="F23">
-        <v>17.24900565738522</v>
+        <v>13.46445734314934</v>
       </c>
       <c r="G23">
-        <v>3.58252234008862</v>
+        <v>2.031277852980725</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>14.67503426582817</v>
+        <v>5.330567348341115</v>
       </c>
       <c r="K23">
         <v>0</v>
@@ -1183,7 +1183,7 @@
         <v>0</v>
       </c>
       <c r="O23">
-        <v>15.33159318410413</v>
+        <v>8.478746639097793</v>
       </c>
     </row>
     <row r="24" spans="1:15">
@@ -1191,25 +1191,25 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>17.73520786994236</v>
+        <v>29.97418341442122</v>
       </c>
       <c r="C24">
-        <v>12.82960660217913</v>
+        <v>21.74576714582026</v>
       </c>
       <c r="D24">
-        <v>4.378800941703216</v>
+        <v>5.876916417065623</v>
       </c>
       <c r="F24">
-        <v>17.37027872535326</v>
+        <v>12.81554749026336</v>
       </c>
       <c r="G24">
-        <v>3.58525114419854</v>
+        <v>2.039524708366928</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>14.93286894232612</v>
+        <v>6.164045695915259</v>
       </c>
       <c r="K24">
         <v>0</v>
@@ -1218,7 +1218,7 @@
         <v>0</v>
       </c>
       <c r="O24">
-        <v>15.53082276468477</v>
+        <v>8.492443683810805</v>
       </c>
     </row>
     <row r="25" spans="1:15">
@@ -1226,25 +1226,25 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>16.27588966320838</v>
+        <v>27.23558845749234</v>
       </c>
       <c r="C25">
-        <v>11.76926332468754</v>
+        <v>19.82610147523188</v>
       </c>
       <c r="D25">
-        <v>4.179758405237664</v>
+        <v>5.425576616999562</v>
       </c>
       <c r="F25">
-        <v>17.53490124072817</v>
+        <v>12.23217235959704</v>
       </c>
       <c r="G25">
-        <v>3.588408576901134</v>
+        <v>2.048677841321902</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>15.23007220239142</v>
+        <v>7.084986064726309</v>
       </c>
       <c r="K25">
         <v>0</v>
@@ -1253,7 +1253,7 @@
         <v>0</v>
       </c>
       <c r="O25">
-        <v>15.76945294430498</v>
+        <v>8.641700881912074</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:O25"/>
+  <dimension ref="A1:Q25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:15">
+    <row r="1" spans="1:17">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -415,845 +415,1283 @@
       <c r="O1" s="1">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:15">
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>25.03329301494382</v>
+        <v>12.61506023539243</v>
       </c>
       <c r="C2">
-        <v>18.28693089288132</v>
+        <v>8.060031356305188</v>
       </c>
       <c r="D2">
-        <v>5.067741131281688</v>
+        <v>5.335408384920058</v>
+      </c>
+      <c r="E2">
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>11.90140737659159</v>
+        <v>25.48979816110234</v>
       </c>
       <c r="G2">
-        <v>2.055667346669921</v>
+        <v>35.61715751866305</v>
       </c>
       <c r="H2">
-        <v>0</v>
+        <v>3.307229460354053</v>
       </c>
       <c r="I2">
-        <v>7.784723466422689</v>
+        <v>3.856389569961668</v>
+      </c>
+      <c r="J2">
+        <v>12.04724059275249</v>
       </c>
       <c r="K2">
-        <v>0</v>
+        <v>20.32305618744606</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>11.04349976304295</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>7.083772693370764</v>
       </c>
       <c r="O2">
-        <v>8.847717772916809</v>
-      </c>
-    </row>
-    <row r="3" spans="1:15">
+        <v>9.953093797356063</v>
+      </c>
+      <c r="P2">
+        <v>0</v>
+      </c>
+      <c r="Q2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>23.42384860076021</v>
+        <v>11.79080742600039</v>
       </c>
       <c r="C3">
-        <v>17.16550415697828</v>
+        <v>7.739977083096332</v>
       </c>
       <c r="D3">
-        <v>4.809822045799918</v>
+        <v>5.258075981017661</v>
+      </c>
+      <c r="E3">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>11.73657246156537</v>
+        <v>24.8897327813327</v>
       </c>
       <c r="G3">
-        <v>2.060573316000204</v>
+        <v>34.73507552005881</v>
       </c>
       <c r="H3">
-        <v>0</v>
+        <v>3.512398026064043</v>
       </c>
       <c r="I3">
-        <v>8.27374276122675</v>
+        <v>4.038723027643391</v>
+      </c>
+      <c r="J3">
+        <v>11.96209203172161</v>
       </c>
       <c r="K3">
-        <v>0</v>
+        <v>20.13202648126543</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>10.4329525482957</v>
       </c>
       <c r="N3">
-        <v>0</v>
+        <v>6.847368483992482</v>
       </c>
       <c r="O3">
-        <v>9.037496418927224</v>
-      </c>
-    </row>
-    <row r="4" spans="1:15">
+        <v>9.536021428919316</v>
+      </c>
+      <c r="P3">
+        <v>0</v>
+      </c>
+      <c r="Q3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>22.37776000789269</v>
+        <v>11.25350651455198</v>
       </c>
       <c r="C4">
-        <v>16.43851834471804</v>
+        <v>7.537928571776714</v>
       </c>
       <c r="D4">
-        <v>4.644100024721272</v>
+        <v>5.209208207427658</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>11.66336242556265</v>
+        <v>24.5193912658067</v>
       </c>
       <c r="G4">
-        <v>2.063673037028464</v>
+        <v>34.1874840140924</v>
       </c>
       <c r="H4">
-        <v>0</v>
+        <v>3.642905502759634</v>
       </c>
       <c r="I4">
-        <v>8.58169932772485</v>
+        <v>4.155291456247942</v>
+      </c>
+      <c r="J4">
+        <v>11.91136811317428</v>
       </c>
       <c r="K4">
-        <v>0</v>
+        <v>20.01449008705256</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>10.03939005336153</v>
       </c>
       <c r="N4">
-        <v>0</v>
+        <v>6.697566503248459</v>
       </c>
       <c r="O4">
-        <v>9.17567537816535</v>
-      </c>
-    </row>
-    <row r="5" spans="1:15">
+        <v>9.270795947547258</v>
+      </c>
+      <c r="P4">
+        <v>0</v>
+      </c>
+      <c r="Q4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>21.9369025195531</v>
+        <v>11.0245423052607</v>
       </c>
       <c r="C5">
-        <v>16.13265867836592</v>
+        <v>7.45822708408706</v>
       </c>
       <c r="D5">
-        <v>4.574762938228157</v>
+        <v>5.189984654011915</v>
+      </c>
+      <c r="E5">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>11.64032825293231</v>
+        <v>24.35310977354104</v>
       </c>
       <c r="G5">
-        <v>2.064958740618663</v>
+        <v>33.93630593208508</v>
       </c>
       <c r="H5">
-        <v>0</v>
+        <v>3.69762954178199</v>
       </c>
       <c r="I5">
-        <v>8.709184186923192</v>
+        <v>4.20646405439263</v>
+      </c>
+      <c r="J5">
+        <v>11.88612263735627</v>
       </c>
       <c r="K5">
-        <v>0</v>
+        <v>19.95507248066072</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>9.875878626192126</v>
       </c>
       <c r="N5">
-        <v>0</v>
+        <v>6.635253273428978</v>
       </c>
       <c r="O5">
-        <v>9.236996844929504</v>
-      </c>
-    </row>
-    <row r="6" spans="1:15">
+        <v>9.159901462544303</v>
+      </c>
+      <c r="P5">
+        <v>0</v>
+      </c>
+      <c r="Q5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>21.86281856679782</v>
+        <v>10.98343330252547</v>
       </c>
       <c r="C6">
-        <v>16.08129276979707</v>
+        <v>7.449857592888759</v>
       </c>
       <c r="D6">
-        <v>4.563142157741813</v>
+        <v>5.188050382989942</v>
+      </c>
+      <c r="E6">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>11.63690612958519</v>
+        <v>24.307074348137</v>
       </c>
       <c r="G6">
-        <v>2.065173607976122</v>
+        <v>33.86179344514228</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>3.707255464904217</v>
       </c>
       <c r="I6">
-        <v>8.730474695520064</v>
+        <v>4.218215780861466</v>
+      </c>
+      <c r="J6">
+        <v>11.8758819163639</v>
       </c>
       <c r="K6">
-        <v>0</v>
+        <v>19.93117321625356</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>9.850298347411265</v>
       </c>
       <c r="N6">
-        <v>0</v>
+        <v>6.624661543958325</v>
       </c>
       <c r="O6">
-        <v>9.247469881341734</v>
-      </c>
-    </row>
-    <row r="7" spans="1:15">
+        <v>9.140588310266731</v>
+      </c>
+      <c r="P6">
+        <v>0</v>
+      </c>
+      <c r="Q6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>22.37187343942265</v>
+        <v>11.24348008441117</v>
       </c>
       <c r="C7">
-        <v>16.43443222225206</v>
+        <v>7.550218838538429</v>
       </c>
       <c r="D7">
-        <v>4.643172156514876</v>
+        <v>5.212469584372118</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>11.66302460206798</v>
+        <v>24.46729591614663</v>
       </c>
       <c r="G7">
-        <v>2.063690284487227</v>
+        <v>34.09547915846837</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>3.644897935800669</v>
       </c>
       <c r="I7">
-        <v>8.583410504945318</v>
+        <v>4.164413959308274</v>
+      </c>
+      <c r="J7">
+        <v>11.89451020868241</v>
       </c>
       <c r="K7">
-        <v>0</v>
+        <v>19.97553031356739</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>10.04216797376959</v>
       </c>
       <c r="N7">
-        <v>0</v>
+        <v>6.696261045731989</v>
       </c>
       <c r="O7">
-        <v>9.176482636194507</v>
-      </c>
-    </row>
-    <row r="8" spans="1:15">
+        <v>9.267230252576789</v>
+      </c>
+      <c r="P7">
+        <v>0</v>
+      </c>
+      <c r="Q7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>24.49035749895472</v>
+        <v>12.3287923395483</v>
       </c>
       <c r="C8">
-        <v>17.90826406638592</v>
+        <v>7.967877496386466</v>
       </c>
       <c r="D8">
-        <v>4.980362822706058</v>
+        <v>5.313819247765031</v>
+      </c>
+      <c r="E8">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>11.8386317786198</v>
+        <v>25.21949044910328</v>
       </c>
       <c r="G8">
-        <v>2.057341120628518</v>
+        <v>35.20094220382289</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>3.378616667046618</v>
       </c>
       <c r="I8">
-        <v>7.951773622979679</v>
+        <v>3.929053192324099</v>
+      </c>
+      <c r="J8">
+        <v>11.99604767771906</v>
       </c>
       <c r="K8">
-        <v>0</v>
+        <v>20.20760650787936</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>10.8430844412163</v>
       </c>
       <c r="N8">
-        <v>0</v>
+        <v>7.002707030155467</v>
       </c>
       <c r="O8">
-        <v>8.908390094010606</v>
-      </c>
-    </row>
-    <row r="9" spans="1:15">
+        <v>9.808619504498777</v>
+      </c>
+      <c r="P8">
+        <v>0</v>
+      </c>
+      <c r="Q8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>28.18681068248516</v>
+        <v>14.22188457626636</v>
       </c>
       <c r="C9">
-        <v>20.49225692319509</v>
+        <v>8.720430380246354</v>
       </c>
       <c r="D9">
-        <v>5.581626776099313</v>
+        <v>5.495003842192059</v>
+      </c>
+      <c r="E9">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>12.41315528236735</v>
+        <v>26.75796211193198</v>
       </c>
       <c r="G9">
-        <v>2.045557571025339</v>
+        <v>37.46278225921796</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>2.889524519581037</v>
       </c>
       <c r="I9">
-        <v>6.771582506403255</v>
+        <v>3.489619681465359</v>
+      </c>
+      <c r="J9">
+        <v>12.2364519947826</v>
       </c>
       <c r="K9">
-        <v>0</v>
+        <v>20.72662495312248</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>12.25554325146553</v>
       </c>
       <c r="N9">
-        <v>0</v>
+        <v>7.56561622830464</v>
       </c>
       <c r="O9">
-        <v>8.575166333129092</v>
-      </c>
-    </row>
-    <row r="10" spans="1:15">
+        <v>10.79694469580916</v>
+      </c>
+      <c r="P9">
+        <v>0</v>
+      </c>
+      <c r="Q9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>30.62629600596383</v>
+        <v>15.45264713142064</v>
       </c>
       <c r="C10">
-        <v>22.20360563940103</v>
+        <v>9.307181813501249</v>
       </c>
       <c r="D10">
-        <v>5.985252302763342</v>
+        <v>5.642335073215049</v>
+      </c>
+      <c r="E10">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>12.98250843268686</v>
+        <v>27.63194257727231</v>
       </c>
       <c r="G10">
-        <v>2.037267462804977</v>
+        <v>38.66253413767965</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>2.581336817533615</v>
       </c>
       <c r="I10">
-        <v>5.936236059404457</v>
+        <v>3.199700836470833</v>
+      </c>
+      <c r="J10">
+        <v>12.337966293283</v>
       </c>
       <c r="K10">
-        <v>0</v>
+        <v>20.91721428267894</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>13.22923277315962</v>
       </c>
       <c r="N10">
-        <v>0</v>
+        <v>7.813319234527233</v>
       </c>
       <c r="O10">
-        <v>8.477253685052984</v>
-      </c>
-    </row>
-    <row r="11" spans="1:15">
+        <v>11.3700063272132</v>
+      </c>
+      <c r="P10">
+        <v>0</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31.6768960281763</v>
+        <v>15.89631655956643</v>
       </c>
       <c r="C11">
-        <v>22.94170298842558</v>
+        <v>10.1096919965078</v>
       </c>
       <c r="D11">
-        <v>6.160392356908013</v>
+        <v>5.907275898751588</v>
+      </c>
+      <c r="E11">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>13.27393277827797</v>
+        <v>26.13019777670748</v>
       </c>
       <c r="G11">
-        <v>2.033566492008418</v>
+        <v>35.85335311656171</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>3.36329812778451</v>
       </c>
       <c r="I11">
-        <v>5.56218699762929</v>
+        <v>3.140832516594325</v>
+      </c>
+      <c r="J11">
+        <v>11.72015083573449</v>
       </c>
       <c r="K11">
-        <v>0</v>
+        <v>19.50673962000586</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>13.89144958215257</v>
       </c>
       <c r="N11">
-        <v>0</v>
+        <v>6.787886438714269</v>
       </c>
       <c r="O11">
-        <v>8.47101849457049</v>
-      </c>
-    </row>
-    <row r="12" spans="1:15">
+        <v>10.7549677003326</v>
+      </c>
+      <c r="P11">
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>32.06630182654448</v>
+        <v>16.03069166873967</v>
       </c>
       <c r="C12">
-        <v>23.2154189348769</v>
+        <v>10.71216403797574</v>
       </c>
       <c r="D12">
-        <v>6.225484855264387</v>
+        <v>6.125859065697475</v>
+      </c>
+      <c r="E12">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>13.38892752078571</v>
+        <v>24.73180497699739</v>
       </c>
       <c r="G12">
-        <v>2.032174309173519</v>
+        <v>33.33297463907654</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>4.585973313128084</v>
       </c>
       <c r="I12">
-        <v>5.421319721208682</v>
+        <v>3.129239713124827</v>
+      </c>
+      <c r="J12">
+        <v>11.2050147450646</v>
       </c>
       <c r="K12">
-        <v>0</v>
+        <v>18.36272428761995</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>14.25240293666441</v>
       </c>
       <c r="N12">
-        <v>0</v>
+        <v>5.99600332185902</v>
       </c>
       <c r="O12">
-        <v>8.474668024796227</v>
-      </c>
-    </row>
-    <row r="13" spans="1:15">
+        <v>10.11610637898692</v>
+      </c>
+      <c r="P12">
+        <v>0</v>
+      </c>
+      <c r="Q12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31.98281022506995</v>
+        <v>15.93167298215286</v>
       </c>
       <c r="C13">
-        <v>23.15672613617149</v>
+        <v>11.21679841995121</v>
       </c>
       <c r="D13">
-        <v>6.211520822695134</v>
+        <v>6.323894905035426</v>
+      </c>
+      <c r="E13">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>13.36395574487487</v>
+        <v>23.23643606440995</v>
       </c>
       <c r="G13">
-        <v>2.032473740718068</v>
+        <v>30.72352079584271</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>5.924310981677556</v>
       </c>
       <c r="I13">
-        <v>5.451624771849001</v>
+        <v>3.167798874922727</v>
+      </c>
+      <c r="J13">
+        <v>10.71293942456016</v>
       </c>
       <c r="K13">
-        <v>0</v>
+        <v>17.30441171821891</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>14.41924323414158</v>
       </c>
       <c r="N13">
-        <v>0</v>
+        <v>5.380178432662318</v>
       </c>
       <c r="O13">
-        <v>8.47360713243596</v>
-      </c>
-    </row>
-    <row r="14" spans="1:15">
+        <v>9.404843957310673</v>
+      </c>
+      <c r="P13">
+        <v>0</v>
+      </c>
+      <c r="Q13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31.70910127625642</v>
+        <v>15.75405312597061</v>
       </c>
       <c r="C14">
-        <v>22.96433754235795</v>
+        <v>11.53955572034718</v>
       </c>
       <c r="D14">
-        <v>6.165772239886694</v>
+        <v>6.457118317745242</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>13.28330074586284</v>
+        <v>22.12822491018166</v>
       </c>
       <c r="G14">
-        <v>2.033451774830409</v>
+        <v>28.83159373609135</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>6.895027474054107</v>
       </c>
       <c r="I14">
-        <v>5.550582662916277</v>
+        <v>3.219867285155337</v>
+      </c>
+      <c r="J14">
+        <v>10.37879403593571</v>
       </c>
       <c r="K14">
-        <v>0</v>
+        <v>16.61052374597728</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>14.45212295407857</v>
       </c>
       <c r="N14">
-        <v>0</v>
+        <v>5.089702640163832</v>
       </c>
       <c r="O14">
-        <v>8.471195542432962</v>
-      </c>
-    </row>
-    <row r="15" spans="1:15">
+        <v>8.869516809541189</v>
+      </c>
+      <c r="P14">
+        <v>0</v>
+      </c>
+      <c r="Q14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31.54035052149559</v>
+        <v>15.65776954491247</v>
       </c>
       <c r="C15">
-        <v>22.84574140933087</v>
+        <v>11.59812834307931</v>
       </c>
       <c r="D15">
-        <v>6.137589573643782</v>
+        <v>6.483789891063291</v>
+      </c>
+      <c r="E15">
+        <v>0</v>
       </c>
       <c r="F15">
-        <v>13.23450007842349</v>
+        <v>21.82268474462266</v>
       </c>
       <c r="G15">
-        <v>2.034052034505714</v>
+        <v>28.3259194029948</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>7.124450771066075</v>
       </c>
       <c r="I15">
-        <v>5.611295972832314</v>
+        <v>3.248225657451078</v>
+      </c>
+      <c r="J15">
+        <v>10.29743495106459</v>
       </c>
       <c r="K15">
-        <v>0</v>
+        <v>16.44718931828337</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>14.41970710139495</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>5.03956126584957</v>
       </c>
       <c r="O15">
-        <v>8.470515395985313</v>
-      </c>
-    </row>
-    <row r="16" spans="1:15">
+        <v>8.7224691678061</v>
+      </c>
+      <c r="P15">
+        <v>0</v>
+      </c>
+      <c r="Q15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>30.55645270265372</v>
+        <v>15.165451329837</v>
       </c>
       <c r="C16">
-        <v>22.15455810407433</v>
+        <v>11.28728043192968</v>
       </c>
       <c r="D16">
-        <v>5.973634977229731</v>
+        <v>6.382422596704103</v>
+      </c>
+      <c r="E16">
+        <v>0</v>
       </c>
       <c r="F16">
-        <v>12.96411432159836</v>
+        <v>21.67072808578555</v>
       </c>
       <c r="G16">
-        <v>2.037510675726677</v>
+        <v>28.20530087644847</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>6.953647603553946</v>
       </c>
       <c r="I16">
-        <v>5.960794207160789</v>
+        <v>3.369633952281083</v>
+      </c>
+      <c r="J16">
+        <v>10.34198537424588</v>
       </c>
       <c r="K16">
-        <v>0</v>
+        <v>16.55946729048563</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>14.00208669740872</v>
       </c>
       <c r="N16">
-        <v>0</v>
+        <v>5.0317303638492</v>
       </c>
       <c r="O16">
-        <v>8.478475734746322</v>
-      </c>
-    </row>
-    <row r="17" spans="1:15">
+        <v>8.589976393825669</v>
+      </c>
+      <c r="P16">
+        <v>0</v>
+      </c>
+      <c r="Q16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>29.93776504708409</v>
+        <v>14.87808494352265</v>
       </c>
       <c r="C17">
-        <v>21.72020569594727</v>
+        <v>10.86156819569852</v>
       </c>
       <c r="D17">
-        <v>5.870875151142068</v>
+        <v>6.230548254593125</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
       </c>
       <c r="F17">
-        <v>12.80653958765821</v>
+        <v>22.15428566353859</v>
       </c>
       <c r="G17">
-        <v>2.039649874144328</v>
+        <v>29.13111833162361</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>6.281868643186368</v>
       </c>
       <c r="I17">
-        <v>6.176670351751154</v>
+        <v>3.436087999660981</v>
+      </c>
+      <c r="J17">
+        <v>10.55178197569042</v>
       </c>
       <c r="K17">
-        <v>0</v>
+        <v>17.00342131387897</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>13.65621919645536</v>
       </c>
       <c r="N17">
-        <v>0</v>
+        <v>5.153816070689987</v>
       </c>
       <c r="O17">
-        <v>8.493538208669737</v>
-      </c>
-    </row>
-    <row r="18" spans="1:15">
+        <v>8.780037763842129</v>
+      </c>
+      <c r="P17">
+        <v>0</v>
+      </c>
+      <c r="Q17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>29.57634165625934</v>
+        <v>14.74750847755723</v>
       </c>
       <c r="C18">
-        <v>21.46657259820774</v>
+        <v>10.29694586146</v>
       </c>
       <c r="D18">
-        <v>5.810973425278599</v>
+        <v>6.025116447216545</v>
+      </c>
+      <c r="E18">
+        <v>0</v>
       </c>
       <c r="F18">
-        <v>12.71896241867194</v>
+        <v>23.27694450509833</v>
       </c>
       <c r="G18">
-        <v>2.040886947336852</v>
+        <v>31.13872044047686</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>5.148825348641884</v>
       </c>
       <c r="I18">
-        <v>6.301402088965147</v>
+        <v>3.449977280019557</v>
+      </c>
+      <c r="J18">
+        <v>10.94600994867696</v>
       </c>
       <c r="K18">
-        <v>0</v>
+        <v>17.8430529076285</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>13.33632015023684</v>
       </c>
       <c r="N18">
-        <v>0</v>
+        <v>5.542870863586467</v>
       </c>
       <c r="O18">
-        <v>8.505778740728624</v>
-      </c>
-    </row>
-    <row r="19" spans="1:15">
+        <v>9.276307191977997</v>
+      </c>
+      <c r="P18">
+        <v>0</v>
+      </c>
+      <c r="Q18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>29.45301113486607</v>
+        <v>14.74585332610151</v>
       </c>
       <c r="C19">
-        <v>21.38004266497154</v>
+        <v>9.739993560364239</v>
       </c>
       <c r="D19">
-        <v>5.790555256589865</v>
+        <v>5.823070200003318</v>
+      </c>
+      <c r="E19">
+        <v>0</v>
       </c>
       <c r="F19">
-        <v>12.68983527706468</v>
+        <v>24.75089455715863</v>
       </c>
       <c r="G19">
-        <v>2.041306967083709</v>
+        <v>33.74323727583842</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>3.872430906025552</v>
       </c>
       <c r="I19">
-        <v>6.343733563752689</v>
+        <v>3.433873842950229</v>
+      </c>
+      <c r="J19">
+        <v>11.44540814669807</v>
       </c>
       <c r="K19">
-        <v>0</v>
+        <v>18.93332884455608</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>13.07717260903553</v>
       </c>
       <c r="N19">
-        <v>0</v>
+        <v>6.27492861249049</v>
       </c>
       <c r="O19">
-        <v>8.510521657605826</v>
-      </c>
-    </row>
-    <row r="20" spans="1:15">
+        <v>9.980009494137386</v>
+      </c>
+      <c r="P19">
+        <v>0</v>
+      </c>
+      <c r="Q19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>30.0042014577904</v>
+        <v>15.1220058974355</v>
       </c>
       <c r="C20">
-        <v>21.76683691344969</v>
+        <v>9.194994035187891</v>
       </c>
       <c r="D20">
-        <v>5.881896689866376</v>
+        <v>5.61698079395772</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
       </c>
       <c r="F20">
-        <v>12.8229975070689</v>
+        <v>27.25631176297287</v>
       </c>
       <c r="G20">
-        <v>2.039421468906018</v>
+        <v>38.08919185263531</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2.664245288506874</v>
       </c>
       <c r="I20">
-        <v>6.153631998844299</v>
+        <v>3.303461269000749</v>
+      </c>
+      <c r="J20">
+        <v>12.25908001704616</v>
       </c>
       <c r="K20">
-        <v>0</v>
+        <v>20.74870061421856</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>12.99397548558963</v>
       </c>
       <c r="N20">
-        <v>0</v>
+        <v>7.742005648670866</v>
       </c>
       <c r="O20">
-        <v>8.49156082264077</v>
-      </c>
-    </row>
-    <row r="21" spans="1:15">
+        <v>11.21246585326234</v>
+      </c>
+      <c r="P20">
+        <v>0</v>
+      </c>
+      <c r="Q20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31.78972452578572</v>
+        <v>16.03893024062987</v>
       </c>
       <c r="C21">
-        <v>23.02100351361499</v>
+        <v>9.543388322138025</v>
       </c>
       <c r="D21">
-        <v>6.179243135792087</v>
+        <v>5.695757252930632</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
       </c>
       <c r="F21">
-        <v>13.30686552574396</v>
+        <v>28.28122739038788</v>
       </c>
       <c r="G21">
-        <v>2.033164256956692</v>
+        <v>39.63523645495738</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2.387315592028445</v>
       </c>
       <c r="I21">
-        <v>5.521495902336537</v>
+        <v>3.072226242571483</v>
+      </c>
+      <c r="J21">
+        <v>12.46655276425454</v>
       </c>
       <c r="K21">
-        <v>0</v>
+        <v>21.18282453275389</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>13.6665442433264</v>
       </c>
       <c r="N21">
-        <v>0</v>
+        <v>8.141573330060032</v>
       </c>
       <c r="O21">
-        <v>8.47173694740165</v>
-      </c>
-    </row>
-    <row r="22" spans="1:15">
+        <v>11.79273203563692</v>
+      </c>
+      <c r="P21">
+        <v>0</v>
+      </c>
+      <c r="Q21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>32.90754649532139</v>
+        <v>16.61350446006416</v>
       </c>
       <c r="C22">
-        <v>23.80696895022201</v>
+        <v>9.780507092940915</v>
       </c>
       <c r="D22">
-        <v>6.366409069560388</v>
+        <v>5.75087982457781</v>
+      </c>
+      <c r="E22">
+        <v>0</v>
       </c>
       <c r="F22">
-        <v>13.65010797838892</v>
+        <v>28.88987227655602</v>
       </c>
       <c r="G22">
-        <v>2.029128567357078</v>
+        <v>40.53647728353572</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2.223004680137368</v>
       </c>
       <c r="I22">
-        <v>5.112846611473833</v>
+        <v>2.915973686409318</v>
+      </c>
+      <c r="J22">
+        <v>12.58481465550315</v>
       </c>
       <c r="K22">
-        <v>0</v>
+        <v>21.42375742382464</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>14.09817590742856</v>
       </c>
       <c r="N22">
-        <v>0</v>
+        <v>8.32579629919827</v>
       </c>
       <c r="O22">
-        <v>8.494016978557516</v>
-      </c>
-    </row>
-    <row r="23" spans="1:15">
+        <v>12.11194473484071</v>
+      </c>
+      <c r="P22">
+        <v>0</v>
+      </c>
+      <c r="Q22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>32.3154136199186</v>
+        <v>16.31524633760266</v>
       </c>
       <c r="C23">
-        <v>23.39055807461888</v>
+        <v>9.640959962964534</v>
       </c>
       <c r="D23">
-        <v>6.267173456140232</v>
+        <v>5.717043224648624</v>
+      </c>
+      <c r="E23">
+        <v>0</v>
       </c>
       <c r="F23">
-        <v>13.46445734314934</v>
+        <v>28.61577149728886</v>
       </c>
       <c r="G23">
-        <v>2.031277852980725</v>
+        <v>40.14523197946532</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2.309213893244999</v>
       </c>
       <c r="I23">
-        <v>5.330567348341115</v>
+        <v>2.987513771230806</v>
+      </c>
+      <c r="J23">
+        <v>12.53955204765622</v>
       </c>
       <c r="K23">
-        <v>0</v>
+        <v>21.33651764560208</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>13.864827312856</v>
       </c>
       <c r="N23">
-        <v>0</v>
+        <v>8.228269704077542</v>
       </c>
       <c r="O23">
-        <v>8.478746639097793</v>
-      </c>
-    </row>
-    <row r="24" spans="1:15">
+        <v>11.94454241694301</v>
+      </c>
+      <c r="P23">
+        <v>0</v>
+      </c>
+      <c r="Q23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>29.97418341442122</v>
+        <v>15.12371229938755</v>
       </c>
       <c r="C24">
-        <v>21.74576714582026</v>
+        <v>9.123889440120642</v>
       </c>
       <c r="D24">
-        <v>5.876916417065623</v>
+        <v>5.593440943768972</v>
+      </c>
+      <c r="E24">
+        <v>0</v>
       </c>
       <c r="F24">
-        <v>12.81554749026336</v>
+        <v>27.48892672309895</v>
       </c>
       <c r="G24">
-        <v>2.039524708366928</v>
+        <v>38.50523013879928</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2.644163871804667</v>
       </c>
       <c r="I24">
-        <v>6.164045695915259</v>
+        <v>3.28441871199688</v>
+      </c>
+      <c r="J24">
+        <v>12.34331973366839</v>
       </c>
       <c r="K24">
-        <v>0</v>
+        <v>20.9411622626345</v>
+      </c>
+      <c r="L24">
+        <v>0</v>
+      </c>
+      <c r="M24">
+        <v>12.95382714810547</v>
       </c>
       <c r="N24">
-        <v>0</v>
+        <v>7.8481443962152</v>
       </c>
       <c r="O24">
-        <v>8.492443683810805</v>
-      </c>
-    </row>
-    <row r="25" spans="1:15">
+        <v>11.28670078377588</v>
+      </c>
+      <c r="P24">
+        <v>0</v>
+      </c>
+      <c r="Q24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>27.23558845749234</v>
+        <v>13.72538991357901</v>
       </c>
       <c r="C25">
-        <v>19.82610147523188</v>
+        <v>8.54373026144939</v>
       </c>
       <c r="D25">
-        <v>5.425576616999562</v>
+        <v>5.453933941015605</v>
+      </c>
+      <c r="E25">
+        <v>0</v>
       </c>
       <c r="F25">
-        <v>12.23217235959704</v>
+        <v>26.26182575118564</v>
       </c>
       <c r="G25">
-        <v>2.048677841321902</v>
+        <v>36.71088063585983</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>3.020192138191541</v>
       </c>
       <c r="I25">
-        <v>7.084986064726309</v>
+        <v>3.620161519425194</v>
+      </c>
+      <c r="J25">
+        <v>12.14140007988445</v>
       </c>
       <c r="K25">
-        <v>0</v>
+        <v>20.52057239239592</v>
+      </c>
+      <c r="L25">
+        <v>0</v>
+      </c>
+      <c r="M25">
+        <v>11.89749305665475</v>
       </c>
       <c r="N25">
-        <v>0</v>
+        <v>7.417089055532486</v>
       </c>
       <c r="O25">
-        <v>8.641700881912074</v>
+        <v>10.5349643403116</v>
+      </c>
+      <c r="P25">
+        <v>0</v>
+      </c>
+      <c r="Q25">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_3_63/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_63/res_line/loading_percent.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:Q25"/>
+  <dimension ref="A1:S25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:17">
+    <row r="1" spans="1:19">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -421,1276 +421,1426 @@
       <c r="Q1" s="1">
         <v>15</v>
       </c>
-    </row>
-    <row r="2" spans="1:17">
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.61506023539243</v>
+        <v>12.5377017916667</v>
       </c>
       <c r="C2">
-        <v>8.060031356305188</v>
+        <v>8.082357937677415</v>
       </c>
       <c r="D2">
-        <v>5.335408384920058</v>
+        <v>5.351325982169549</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>25.48979816110234</v>
+        <v>23.66092262020352</v>
       </c>
       <c r="G2">
-        <v>35.61715751866305</v>
+        <v>32.13175738900617</v>
       </c>
       <c r="H2">
-        <v>3.307229460354053</v>
+        <v>3.132579796995238</v>
       </c>
       <c r="I2">
-        <v>3.856389569961668</v>
+        <v>3.639805131328955</v>
       </c>
       <c r="J2">
-        <v>12.04724059275249</v>
+        <v>11.53585576161054</v>
       </c>
       <c r="K2">
-        <v>20.32305618744606</v>
+        <v>18.68898350698784</v>
       </c>
       <c r="L2">
-        <v>0</v>
+        <v>14.79789934406617</v>
       </c>
       <c r="M2">
-        <v>11.04349976304295</v>
+        <v>12.90088988519942</v>
       </c>
       <c r="N2">
-        <v>7.083772693370764</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>9.953093797356063</v>
+        <v>11.25141232020416</v>
       </c>
       <c r="P2">
-        <v>0</v>
+        <v>7.227806492184661</v>
       </c>
       <c r="Q2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17">
+        <v>9.870663584443104</v>
+      </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19">
       <c r="A3" s="1">
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.79080742600039</v>
+        <v>11.74644925921498</v>
       </c>
       <c r="C3">
-        <v>7.739977083096332</v>
+        <v>7.676397436733505</v>
       </c>
       <c r="D3">
-        <v>5.258075981017661</v>
+        <v>5.238177937669991</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>24.8897327813327</v>
+        <v>23.23148933464886</v>
       </c>
       <c r="G3">
-        <v>34.73507552005881</v>
+        <v>31.607911386208</v>
       </c>
       <c r="H3">
-        <v>3.512398026064043</v>
+        <v>3.319743717066213</v>
       </c>
       <c r="I3">
-        <v>4.038723027643391</v>
+        <v>3.799147795510099</v>
       </c>
       <c r="J3">
-        <v>11.96209203172161</v>
+        <v>11.46681563357531</v>
       </c>
       <c r="K3">
-        <v>20.13202648126543</v>
+        <v>18.63106686623178</v>
       </c>
       <c r="L3">
-        <v>0</v>
+        <v>14.85184315336515</v>
       </c>
       <c r="M3">
-        <v>10.4329525482957</v>
+        <v>12.78505006146598</v>
       </c>
       <c r="N3">
-        <v>6.847368483992482</v>
+        <v>0</v>
       </c>
       <c r="O3">
-        <v>9.536021428919316</v>
+        <v>10.62876055422235</v>
       </c>
       <c r="P3">
-        <v>0</v>
+        <v>7.00587551234398</v>
       </c>
       <c r="Q3">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17">
+        <v>9.458233529832301</v>
+      </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19">
       <c r="A4" s="1">
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.25350651455198</v>
+        <v>11.23097912925041</v>
       </c>
       <c r="C4">
-        <v>7.537928571776714</v>
+        <v>7.419520889364212</v>
       </c>
       <c r="D4">
-        <v>5.209208207427658</v>
+        <v>5.167261937567346</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>24.5193912658067</v>
+        <v>22.96741413490301</v>
       </c>
       <c r="G4">
-        <v>34.1874840140924</v>
+        <v>31.28821568342463</v>
       </c>
       <c r="H4">
-        <v>3.642905502759634</v>
+        <v>3.438874528376971</v>
       </c>
       <c r="I4">
-        <v>4.155291456247942</v>
+        <v>3.901347992557553</v>
       </c>
       <c r="J4">
-        <v>11.91136811317428</v>
+        <v>11.42392442107192</v>
       </c>
       <c r="K4">
-        <v>20.01449008705256</v>
+        <v>18.59521186412099</v>
       </c>
       <c r="L4">
-        <v>0</v>
+        <v>14.88154617710982</v>
       </c>
       <c r="M4">
-        <v>10.03939005336153</v>
+        <v>12.72882312438775</v>
       </c>
       <c r="N4">
-        <v>6.697566503248459</v>
+        <v>0</v>
       </c>
       <c r="O4">
-        <v>9.270795947547258</v>
+        <v>10.22748832508191</v>
       </c>
       <c r="P4">
-        <v>0</v>
+        <v>6.865659272095264</v>
       </c>
       <c r="Q4">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17">
+        <v>9.195716609236102</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19">
       <c r="A5" s="1">
         <v>3</v>
       </c>
       <c r="B5">
-        <v>11.0245423052607</v>
+        <v>11.01149788524128</v>
       </c>
       <c r="C5">
-        <v>7.45822708408706</v>
+        <v>7.318014281877429</v>
       </c>
       <c r="D5">
-        <v>5.189984654011915</v>
+        <v>5.139312746869082</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>24.35310977354104</v>
+        <v>22.84619119468983</v>
       </c>
       <c r="G5">
-        <v>33.93630593208508</v>
+        <v>31.13451537718671</v>
       </c>
       <c r="H5">
-        <v>3.69762954178199</v>
+        <v>3.488850907074835</v>
       </c>
       <c r="I5">
-        <v>4.20646405439263</v>
+        <v>3.946990237765</v>
       </c>
       <c r="J5">
-        <v>11.88612263735627</v>
+        <v>11.40184950495706</v>
       </c>
       <c r="K5">
-        <v>19.95507248066072</v>
+        <v>18.57059210737473</v>
       </c>
       <c r="L5">
-        <v>0</v>
+        <v>14.88402580948074</v>
       </c>
       <c r="M5">
-        <v>9.875878626192126</v>
+        <v>12.70346518708239</v>
       </c>
       <c r="N5">
-        <v>6.635253273428978</v>
+        <v>0</v>
       </c>
       <c r="O5">
-        <v>9.159901462544303</v>
+        <v>10.06068028100692</v>
       </c>
       <c r="P5">
-        <v>0</v>
+        <v>6.807433016771365</v>
       </c>
       <c r="Q5">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17">
+        <v>9.085939940200262</v>
+      </c>
+      <c r="R5">
+        <v>0</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19">
       <c r="A6" s="1">
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.98343330252547</v>
+        <v>10.9721993194363</v>
       </c>
       <c r="C6">
-        <v>7.449857592888759</v>
+        <v>7.307239373693525</v>
       </c>
       <c r="D6">
-        <v>5.188050382989942</v>
+        <v>5.136249533359707</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>24.307074348137</v>
+        <v>22.80945314909232</v>
       </c>
       <c r="G6">
-        <v>33.86179344514228</v>
+        <v>31.07974747751787</v>
       </c>
       <c r="H6">
-        <v>3.707255464904217</v>
+        <v>3.497649135801615</v>
       </c>
       <c r="I6">
-        <v>4.218215780861466</v>
+        <v>3.958336918366019</v>
       </c>
       <c r="J6">
-        <v>11.8758819163639</v>
+        <v>11.39270731967458</v>
       </c>
       <c r="K6">
-        <v>19.93117321625356</v>
+        <v>18.55437327415498</v>
       </c>
       <c r="L6">
-        <v>0</v>
+        <v>14.8736945246097</v>
       </c>
       <c r="M6">
-        <v>9.850298347411265</v>
+        <v>12.69184231808822</v>
       </c>
       <c r="N6">
-        <v>6.624661543958325</v>
+        <v>0</v>
       </c>
       <c r="O6">
-        <v>9.140588310266731</v>
+        <v>10.03442684830146</v>
       </c>
       <c r="P6">
-        <v>0</v>
+        <v>6.797535284544962</v>
       </c>
       <c r="Q6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17">
+        <v>9.066873681034753</v>
+      </c>
+      <c r="R6">
+        <v>0</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19">
       <c r="A7" s="1">
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.24348008441117</v>
+        <v>11.22305335580355</v>
       </c>
       <c r="C7">
-        <v>7.550218838538429</v>
+        <v>7.428927290230382</v>
       </c>
       <c r="D7">
-        <v>5.212469584372118</v>
+        <v>5.174065244122564</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>24.46729591614663</v>
+        <v>22.89403535822166</v>
       </c>
       <c r="G7">
-        <v>34.09547915846837</v>
+        <v>31.26186506484293</v>
       </c>
       <c r="H7">
-        <v>3.644897935800669</v>
+        <v>3.441224625889581</v>
       </c>
       <c r="I7">
-        <v>4.164413959308274</v>
+        <v>3.912382878455186</v>
       </c>
       <c r="J7">
-        <v>11.89451020868241</v>
+        <v>11.36286918567213</v>
       </c>
       <c r="K7">
-        <v>19.97553031356739</v>
+        <v>18.54694343648431</v>
       </c>
       <c r="L7">
-        <v>0</v>
+        <v>14.83999786359043</v>
       </c>
       <c r="M7">
-        <v>10.04216797376959</v>
+        <v>12.6974643201967</v>
       </c>
       <c r="N7">
-        <v>6.696261045731989</v>
+        <v>0</v>
       </c>
       <c r="O7">
-        <v>9.267230252576789</v>
+        <v>10.22783598293981</v>
       </c>
       <c r="P7">
-        <v>0</v>
+        <v>6.863930037444321</v>
       </c>
       <c r="Q7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17">
+        <v>9.192876023399027</v>
+      </c>
+      <c r="R7">
+        <v>0</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19">
       <c r="A8" s="1">
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.3287923395483</v>
+        <v>12.26754473100213</v>
       </c>
       <c r="C8">
-        <v>7.967877496386466</v>
+        <v>7.946503824330502</v>
       </c>
       <c r="D8">
-        <v>5.313819247765031</v>
+        <v>5.32804058272163</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>25.21949044910328</v>
+        <v>23.36912995910248</v>
       </c>
       <c r="G8">
-        <v>35.20094220382289</v>
+        <v>32.02935871738903</v>
       </c>
       <c r="H8">
-        <v>3.378616667046618</v>
+        <v>3.199286399016204</v>
       </c>
       <c r="I8">
-        <v>3.929053192324099</v>
+        <v>3.708266590600994</v>
       </c>
       <c r="J8">
-        <v>11.99604767771906</v>
+        <v>11.34371906705314</v>
       </c>
       <c r="K8">
-        <v>20.20760650787936</v>
+        <v>18.57769783317627</v>
       </c>
       <c r="L8">
-        <v>0</v>
+        <v>14.74190567473685</v>
       </c>
       <c r="M8">
-        <v>10.8430844412163</v>
+        <v>12.79430938492361</v>
       </c>
       <c r="N8">
-        <v>7.002707030155467</v>
+        <v>0</v>
       </c>
       <c r="O8">
-        <v>9.808619504498777</v>
+        <v>11.04014837133106</v>
       </c>
       <c r="P8">
-        <v>0</v>
+        <v>7.150114320438412</v>
       </c>
       <c r="Q8">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:17">
+        <v>9.72971676975277</v>
+      </c>
+      <c r="R8">
+        <v>0</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19">
       <c r="A9" s="1">
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.22188457626636</v>
+        <v>14.08616729217842</v>
       </c>
       <c r="C9">
-        <v>8.720430380246354</v>
+        <v>8.893300978991395</v>
       </c>
       <c r="D9">
-        <v>5.495003842192059</v>
+        <v>5.599512222662116</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>26.75796211193198</v>
+        <v>24.47019167564612</v>
       </c>
       <c r="G9">
-        <v>37.46278225921796</v>
+        <v>33.48044345725542</v>
       </c>
       <c r="H9">
-        <v>2.889524519581037</v>
+        <v>2.753816264224186</v>
       </c>
       <c r="I9">
-        <v>3.489619681465359</v>
+        <v>3.323788139445322</v>
       </c>
       <c r="J9">
-        <v>12.2364519947826</v>
+        <v>11.49304297159626</v>
       </c>
       <c r="K9">
-        <v>20.72662495312248</v>
+        <v>18.74806453702568</v>
       </c>
       <c r="L9">
-        <v>0</v>
+        <v>14.61632305270279</v>
       </c>
       <c r="M9">
-        <v>12.25554325146553</v>
+        <v>13.17594754869552</v>
       </c>
       <c r="N9">
-        <v>7.56561622830464</v>
+        <v>0</v>
       </c>
       <c r="O9">
-        <v>10.79694469580916</v>
+        <v>12.48022755641487</v>
       </c>
       <c r="P9">
-        <v>0</v>
+        <v>7.680508933248853</v>
       </c>
       <c r="Q9">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:17">
+        <v>10.70579353203275</v>
+      </c>
+      <c r="R9">
+        <v>0</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19">
       <c r="A10" s="1">
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.45264713142064</v>
+        <v>15.27918615842081</v>
       </c>
       <c r="C10">
-        <v>9.307181813501249</v>
+        <v>9.588193596369901</v>
       </c>
       <c r="D10">
-        <v>5.642335073215049</v>
+        <v>5.832071930535762</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>27.63194257727231</v>
+        <v>24.93990093584911</v>
       </c>
       <c r="G10">
-        <v>38.66253413767965</v>
+        <v>34.50642896738334</v>
       </c>
       <c r="H10">
-        <v>2.581336817533615</v>
+        <v>2.478122565445303</v>
       </c>
       <c r="I10">
-        <v>3.199700836470833</v>
+        <v>3.075943772252704</v>
       </c>
       <c r="J10">
-        <v>12.337966293283</v>
+        <v>11.28934973821707</v>
       </c>
       <c r="K10">
-        <v>20.91721428267894</v>
+        <v>18.64613546209702</v>
       </c>
       <c r="L10">
-        <v>0</v>
+        <v>14.34185612794404</v>
       </c>
       <c r="M10">
-        <v>13.22923277315962</v>
+        <v>13.34328357642577</v>
       </c>
       <c r="N10">
-        <v>7.813319234527233</v>
+        <v>0</v>
       </c>
       <c r="O10">
-        <v>11.3700063272132</v>
+        <v>13.45983595486122</v>
       </c>
       <c r="P10">
-        <v>0</v>
+        <v>7.906382505075616</v>
       </c>
       <c r="Q10">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="11" spans="1:17">
+        <v>11.27315182404704</v>
+      </c>
+      <c r="R10">
+        <v>0</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19">
       <c r="A11" s="1">
         <v>9</v>
       </c>
       <c r="B11">
-        <v>15.89631655956643</v>
+        <v>15.75390077301352</v>
       </c>
       <c r="C11">
-        <v>10.1096919965078</v>
+        <v>10.40419809898782</v>
       </c>
       <c r="D11">
-        <v>5.907275898751588</v>
+        <v>6.185510945705102</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>26.13019777670748</v>
+        <v>23.36246671585327</v>
       </c>
       <c r="G11">
-        <v>35.85335311656171</v>
+        <v>32.70867409156957</v>
       </c>
       <c r="H11">
-        <v>3.36329812778451</v>
+        <v>3.292142293084831</v>
       </c>
       <c r="I11">
-        <v>3.140832516594325</v>
+        <v>3.033872347080768</v>
       </c>
       <c r="J11">
-        <v>11.72015083573449</v>
+        <v>10.32738655730411</v>
       </c>
       <c r="K11">
-        <v>19.50673962000586</v>
+        <v>17.32676707070233</v>
       </c>
       <c r="L11">
-        <v>0</v>
+        <v>13.30902478746521</v>
       </c>
       <c r="M11">
-        <v>13.89144958215257</v>
+        <v>12.40689803227115</v>
       </c>
       <c r="N11">
-        <v>6.787886438714269</v>
+        <v>0</v>
       </c>
       <c r="O11">
-        <v>10.7549677003326</v>
+        <v>14.08453093904887</v>
       </c>
       <c r="P11">
-        <v>0</v>
+        <v>6.875916989762625</v>
       </c>
       <c r="Q11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:17">
+        <v>10.67107767767717</v>
+      </c>
+      <c r="R11">
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19">
       <c r="A12" s="1">
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.03069166873967</v>
+        <v>15.9178344807354</v>
       </c>
       <c r="C12">
-        <v>10.71216403797574</v>
+        <v>10.97763597590411</v>
       </c>
       <c r="D12">
-        <v>6.125859065697475</v>
+        <v>6.441029523762898</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>24.73180497699739</v>
+        <v>22.06795675370534</v>
       </c>
       <c r="G12">
-        <v>33.33297463907654</v>
+        <v>30.87048890305316</v>
       </c>
       <c r="H12">
-        <v>4.585973313128084</v>
+        <v>4.53408839632409</v>
       </c>
       <c r="I12">
-        <v>3.129239713124827</v>
+        <v>3.024242634574669</v>
       </c>
       <c r="J12">
-        <v>11.2050147450646</v>
+        <v>9.775266957804313</v>
       </c>
       <c r="K12">
-        <v>18.36272428761995</v>
+        <v>16.37545555990487</v>
       </c>
       <c r="L12">
-        <v>0</v>
+        <v>12.62005498324129</v>
       </c>
       <c r="M12">
-        <v>14.25240293666441</v>
+        <v>11.66846529077503</v>
       </c>
       <c r="N12">
-        <v>5.99600332185902</v>
+        <v>0</v>
       </c>
       <c r="O12">
-        <v>10.11610637898692</v>
+        <v>14.41706254687226</v>
       </c>
       <c r="P12">
-        <v>0</v>
+        <v>6.085116841691409</v>
       </c>
       <c r="Q12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:17">
+        <v>10.0426089483297</v>
+      </c>
+      <c r="R12">
+        <v>0</v>
+      </c>
+      <c r="S12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19">
       <c r="A13" s="1">
         <v>11</v>
       </c>
       <c r="B13">
-        <v>15.93167298215286</v>
+        <v>15.84746365733615</v>
       </c>
       <c r="C13">
-        <v>11.21679841995121</v>
+        <v>11.44668111994492</v>
       </c>
       <c r="D13">
-        <v>6.323894905035426</v>
+        <v>6.626706599859407</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>23.23643606440995</v>
+        <v>20.88689211292622</v>
       </c>
       <c r="G13">
-        <v>30.72352079584271</v>
+        <v>28.62133148546897</v>
       </c>
       <c r="H13">
-        <v>5.924310981677556</v>
+        <v>5.880543835605446</v>
       </c>
       <c r="I13">
-        <v>3.167798874922727</v>
+        <v>3.055092901951373</v>
       </c>
       <c r="J13">
-        <v>10.71293942456016</v>
+        <v>9.513541605728653</v>
       </c>
       <c r="K13">
-        <v>17.30441171821891</v>
+        <v>15.62525582004597</v>
       </c>
       <c r="L13">
-        <v>0</v>
+        <v>12.11373971509343</v>
       </c>
       <c r="M13">
-        <v>14.41924323414158</v>
+        <v>11.0326403444873</v>
       </c>
       <c r="N13">
-        <v>5.380178432662318</v>
+        <v>0</v>
       </c>
       <c r="O13">
-        <v>9.404843957310673</v>
+        <v>14.56357664920969</v>
       </c>
       <c r="P13">
-        <v>0</v>
+        <v>5.476236497939801</v>
       </c>
       <c r="Q13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:17">
+        <v>9.339497922076614</v>
+      </c>
+      <c r="R13">
+        <v>0</v>
+      </c>
+      <c r="S13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19">
       <c r="A14" s="1">
         <v>12</v>
       </c>
       <c r="B14">
-        <v>15.75405312597061</v>
+        <v>15.690033511156</v>
       </c>
       <c r="C14">
-        <v>11.53955572034718</v>
+        <v>11.74175383235571</v>
       </c>
       <c r="D14">
-        <v>6.457118317745242</v>
+        <v>6.726860349796842</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>22.12822491018166</v>
+        <v>20.09108472612828</v>
       </c>
       <c r="G14">
-        <v>28.83159373609135</v>
+        <v>26.85161171420408</v>
       </c>
       <c r="H14">
-        <v>6.895027474054107</v>
+        <v>6.853752987716804</v>
       </c>
       <c r="I14">
-        <v>3.219867285155337</v>
+        <v>3.098095336132741</v>
       </c>
       <c r="J14">
-        <v>10.37879403593571</v>
+        <v>9.433618030958769</v>
       </c>
       <c r="K14">
-        <v>16.61052374597728</v>
+        <v>15.18696666836924</v>
       </c>
       <c r="L14">
-        <v>0</v>
+        <v>11.83077669272611</v>
       </c>
       <c r="M14">
-        <v>14.45212295407857</v>
+        <v>10.63734967421409</v>
       </c>
       <c r="N14">
-        <v>5.089702640163832</v>
+        <v>0</v>
       </c>
       <c r="O14">
-        <v>8.869516809541189</v>
+        <v>14.58524234188855</v>
       </c>
       <c r="P14">
-        <v>0</v>
+        <v>5.192436176280408</v>
       </c>
       <c r="Q14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:17">
+        <v>8.808839257993606</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19">
       <c r="A15" s="1">
         <v>13</v>
       </c>
       <c r="B15">
-        <v>15.65776954491247</v>
+        <v>15.59892323770974</v>
       </c>
       <c r="C15">
-        <v>11.59812834307931</v>
+        <v>11.79549685834432</v>
       </c>
       <c r="D15">
-        <v>6.483789891063291</v>
+        <v>6.736281858342524</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>21.82268474462266</v>
+        <v>19.90174804435936</v>
       </c>
       <c r="G15">
-        <v>28.3259194029948</v>
+        <v>26.32602116248835</v>
       </c>
       <c r="H15">
-        <v>7.124450771066075</v>
+        <v>7.082812343707672</v>
       </c>
       <c r="I15">
-        <v>3.248225657451078</v>
+        <v>3.122858340311117</v>
       </c>
       <c r="J15">
-        <v>10.29743495106459</v>
+        <v>9.453325833074944</v>
       </c>
       <c r="K15">
-        <v>16.44718931828337</v>
+        <v>15.10394324969345</v>
       </c>
       <c r="L15">
-        <v>0</v>
+        <v>11.78075505226337</v>
       </c>
       <c r="M15">
-        <v>14.41970710139495</v>
+        <v>10.5535979603222</v>
       </c>
       <c r="N15">
-        <v>5.03956126584957</v>
+        <v>0</v>
       </c>
       <c r="O15">
-        <v>8.7224691678061</v>
+        <v>14.55154647925275</v>
       </c>
       <c r="P15">
-        <v>0</v>
+        <v>5.14516128538976</v>
       </c>
       <c r="Q15">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:17">
+        <v>8.662565000401283</v>
+      </c>
+      <c r="R15">
+        <v>0</v>
+      </c>
+      <c r="S15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19">
       <c r="A16" s="1">
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.165451329837</v>
+        <v>15.10849867486658</v>
       </c>
       <c r="C16">
-        <v>11.28728043192968</v>
+        <v>11.50591090889042</v>
       </c>
       <c r="D16">
-        <v>6.382422596704103</v>
+        <v>6.562653179273663</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>21.67072808578555</v>
+        <v>20.07036255528942</v>
       </c>
       <c r="G16">
-        <v>28.20530087644847</v>
+        <v>25.79801447929017</v>
       </c>
       <c r="H16">
-        <v>6.953647603553946</v>
+        <v>6.90252553641884</v>
       </c>
       <c r="I16">
-        <v>3.369633952281083</v>
+        <v>3.224904618861395</v>
       </c>
       <c r="J16">
-        <v>10.34198537424588</v>
+        <v>9.838162570265727</v>
       </c>
       <c r="K16">
-        <v>16.55946729048563</v>
+        <v>15.36212422058547</v>
       </c>
       <c r="L16">
-        <v>0</v>
+        <v>11.98617862136785</v>
       </c>
       <c r="M16">
-        <v>14.00208669740872</v>
+        <v>10.70235855299565</v>
       </c>
       <c r="N16">
-        <v>5.0317303638492</v>
+        <v>0</v>
       </c>
       <c r="O16">
-        <v>8.589976393825669</v>
+        <v>14.14805422373932</v>
       </c>
       <c r="P16">
-        <v>0</v>
+        <v>5.151776318447001</v>
       </c>
       <c r="Q16">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:17">
+        <v>8.526908407700255</v>
+      </c>
+      <c r="R16">
+        <v>0</v>
+      </c>
+      <c r="S16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19">
       <c r="A17" s="1">
         <v>15</v>
       </c>
       <c r="B17">
-        <v>14.87808494352265</v>
+        <v>14.81322004959198</v>
       </c>
       <c r="C17">
-        <v>10.86156819569852</v>
+        <v>11.10205782449171</v>
       </c>
       <c r="D17">
-        <v>6.230548254593125</v>
+        <v>6.38257137696162</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>22.15428566353859</v>
+        <v>20.60051984708354</v>
       </c>
       <c r="G17">
-        <v>29.13111833162361</v>
+        <v>26.41159042524571</v>
       </c>
       <c r="H17">
-        <v>6.281868643186368</v>
+        <v>6.220278285521957</v>
       </c>
       <c r="I17">
-        <v>3.436087999660981</v>
+        <v>3.281942988960777</v>
       </c>
       <c r="J17">
-        <v>10.55178197569042</v>
+        <v>10.15869980897267</v>
       </c>
       <c r="K17">
-        <v>17.00342131387897</v>
+        <v>15.78135861615426</v>
       </c>
       <c r="L17">
-        <v>0</v>
+        <v>12.30195321964131</v>
       </c>
       <c r="M17">
-        <v>13.65621919645536</v>
+        <v>11.00555966835404</v>
       </c>
       <c r="N17">
-        <v>5.153816070689987</v>
+        <v>0</v>
       </c>
       <c r="O17">
-        <v>8.780037763842129</v>
+        <v>13.81708734358603</v>
       </c>
       <c r="P17">
-        <v>0</v>
+        <v>5.281166379879308</v>
       </c>
       <c r="Q17">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:17">
+        <v>8.712773264350005</v>
+      </c>
+      <c r="R17">
+        <v>0</v>
+      </c>
+      <c r="S17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19">
       <c r="A18" s="1">
         <v>16</v>
       </c>
       <c r="B18">
-        <v>14.74750847755723</v>
+        <v>14.66233245175615</v>
       </c>
       <c r="C18">
-        <v>10.29694586146</v>
+        <v>10.56448891867824</v>
       </c>
       <c r="D18">
-        <v>6.025116447216545</v>
+        <v>6.170418913251651</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>23.27694450509833</v>
+        <v>21.58589741187054</v>
       </c>
       <c r="G18">
-        <v>31.13872044047686</v>
+        <v>28.01903832866567</v>
       </c>
       <c r="H18">
-        <v>5.148825348641884</v>
+        <v>5.072270713684395</v>
       </c>
       <c r="I18">
-        <v>3.449977280019557</v>
+        <v>3.29193510253634</v>
       </c>
       <c r="J18">
-        <v>10.94600994867696</v>
+        <v>10.53789745326951</v>
       </c>
       <c r="K18">
-        <v>17.8430529076285</v>
+        <v>16.46234371186744</v>
       </c>
       <c r="L18">
-        <v>0</v>
+        <v>12.81067808926055</v>
       </c>
       <c r="M18">
-        <v>13.33632015023684</v>
+        <v>11.52475982904808</v>
       </c>
       <c r="N18">
-        <v>5.542870863586467</v>
+        <v>0</v>
       </c>
       <c r="O18">
-        <v>9.276307191977997</v>
+        <v>13.51753177269784</v>
       </c>
       <c r="P18">
-        <v>0</v>
+        <v>5.669932086465372</v>
       </c>
       <c r="Q18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:17">
+        <v>9.202411112148335</v>
+      </c>
+      <c r="R18">
+        <v>0</v>
+      </c>
+      <c r="S18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19">
       <c r="A19" s="1">
         <v>17</v>
       </c>
       <c r="B19">
-        <v>14.74585332610151</v>
+        <v>14.63185941545851</v>
       </c>
       <c r="C19">
-        <v>9.739993560364239</v>
+        <v>10.0259468701124</v>
       </c>
       <c r="D19">
-        <v>5.823070200003318</v>
+        <v>5.968897053830178</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>24.75089455715863</v>
+        <v>22.81232585386516</v>
       </c>
       <c r="G19">
-        <v>33.74323727583842</v>
+        <v>30.14698543905452</v>
       </c>
       <c r="H19">
-        <v>3.872430906025552</v>
+        <v>3.774755801389145</v>
       </c>
       <c r="I19">
-        <v>3.433873842950229</v>
+        <v>3.280502543552499</v>
       </c>
       <c r="J19">
-        <v>11.44540814669807</v>
+        <v>10.94990172453995</v>
       </c>
       <c r="K19">
-        <v>18.93332884455608</v>
+        <v>17.30707902428285</v>
       </c>
       <c r="L19">
-        <v>0</v>
+        <v>13.44033188247091</v>
       </c>
       <c r="M19">
-        <v>13.07717260903553</v>
+        <v>12.17884642899418</v>
       </c>
       <c r="N19">
-        <v>6.27492861249049</v>
+        <v>0</v>
       </c>
       <c r="O19">
-        <v>9.980009494137386</v>
+        <v>13.28131555310609</v>
       </c>
       <c r="P19">
-        <v>0</v>
+        <v>6.394379361507594</v>
       </c>
       <c r="Q19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:17">
+        <v>9.897683159271942</v>
+      </c>
+      <c r="R19">
+        <v>0</v>
+      </c>
+      <c r="S19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19">
       <c r="A20" s="1">
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.1220058974355</v>
+        <v>14.95575528146654</v>
       </c>
       <c r="C20">
-        <v>9.194994035187891</v>
+        <v>9.474856846699534</v>
       </c>
       <c r="D20">
-        <v>5.61698079395772</v>
+        <v>5.7766879030649</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>27.25631176297287</v>
+        <v>24.77004835668531</v>
       </c>
       <c r="G20">
-        <v>38.08919185263531</v>
+        <v>33.81661042576715</v>
       </c>
       <c r="H20">
-        <v>2.664245288506874</v>
+        <v>2.550761838165166</v>
       </c>
       <c r="I20">
-        <v>3.303461269000749</v>
+        <v>3.171929478860167</v>
       </c>
       <c r="J20">
-        <v>12.25908001704616</v>
+        <v>11.45060144139563</v>
       </c>
       <c r="K20">
-        <v>20.74870061421856</v>
+        <v>18.62227584544443</v>
       </c>
       <c r="L20">
-        <v>0</v>
+        <v>14.37610058893614</v>
       </c>
       <c r="M20">
-        <v>12.99397548558963</v>
+        <v>13.25701147312782</v>
       </c>
       <c r="N20">
-        <v>7.742005648670866</v>
+        <v>0</v>
       </c>
       <c r="O20">
-        <v>11.21246585326234</v>
+        <v>13.22802266636181</v>
       </c>
       <c r="P20">
-        <v>0</v>
+        <v>7.842089122993133</v>
       </c>
       <c r="Q20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:17">
+        <v>11.1161374273813</v>
+      </c>
+      <c r="R20">
+        <v>0</v>
+      </c>
+      <c r="S20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19">
       <c r="A21" s="1">
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.03893024062987</v>
+        <v>15.85878145587368</v>
       </c>
       <c r="C21">
-        <v>9.543388322138025</v>
+        <v>9.802007727249826</v>
       </c>
       <c r="D21">
-        <v>5.695757252930632</v>
+        <v>5.973223029686301</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>28.28122739038788</v>
+        <v>24.98484934929679</v>
       </c>
       <c r="G21">
-        <v>39.63523645495738</v>
+        <v>36.11597469394844</v>
       </c>
       <c r="H21">
-        <v>2.387315592028445</v>
+        <v>2.306354959061204</v>
       </c>
       <c r="I21">
-        <v>3.072226242571483</v>
+        <v>2.98219375318019</v>
       </c>
       <c r="J21">
-        <v>12.46655276425454</v>
+        <v>10.63398142699671</v>
       </c>
       <c r="K21">
-        <v>21.18282453275389</v>
+        <v>18.50896505642849</v>
       </c>
       <c r="L21">
-        <v>0</v>
+        <v>14.14395047932045</v>
       </c>
       <c r="M21">
-        <v>13.6665442433264</v>
+        <v>13.36924074600269</v>
       </c>
       <c r="N21">
-        <v>8.141573330060032</v>
+        <v>0</v>
       </c>
       <c r="O21">
-        <v>11.79273203563692</v>
+        <v>13.8798061278523</v>
       </c>
       <c r="P21">
-        <v>0</v>
+        <v>8.217924982586368</v>
       </c>
       <c r="Q21">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:17">
+        <v>11.69764203657386</v>
+      </c>
+      <c r="R21">
+        <v>0</v>
+      </c>
+      <c r="S21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19">
       <c r="A22" s="1">
         <v>20</v>
       </c>
       <c r="B22">
-        <v>16.61350446006416</v>
+        <v>16.4277359022054</v>
       </c>
       <c r="C22">
-        <v>9.780507092940915</v>
+        <v>10.02068780728253</v>
       </c>
       <c r="D22">
-        <v>5.75087982457781</v>
+        <v>6.110895635327034</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>28.88987227655602</v>
+        <v>25.05469915274573</v>
       </c>
       <c r="G22">
-        <v>40.53647728353572</v>
+        <v>37.62611626065737</v>
       </c>
       <c r="H22">
-        <v>2.223004680137368</v>
+        <v>2.1627538721007</v>
       </c>
       <c r="I22">
-        <v>2.915973686409318</v>
+        <v>2.850033912024067</v>
       </c>
       <c r="J22">
-        <v>12.58481465550315</v>
+        <v>10.08014905414101</v>
       </c>
       <c r="K22">
-        <v>21.42375742382464</v>
+        <v>18.38636311779694</v>
       </c>
       <c r="L22">
-        <v>0</v>
+        <v>13.95958218470007</v>
       </c>
       <c r="M22">
-        <v>14.09817590742856</v>
+        <v>13.41039178614578</v>
       </c>
       <c r="N22">
-        <v>8.32579629919827</v>
+        <v>0</v>
       </c>
       <c r="O22">
-        <v>12.11194473484071</v>
+        <v>14.29560307409652</v>
       </c>
       <c r="P22">
-        <v>0</v>
+        <v>8.38780303044858</v>
       </c>
       <c r="Q22">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:17">
+        <v>12.01839891083551</v>
+      </c>
+      <c r="R22">
+        <v>0</v>
+      </c>
+      <c r="S22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19">
       <c r="A23" s="1">
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.31524633760266</v>
+        <v>16.12911020456</v>
       </c>
       <c r="C23">
-        <v>9.640959962964534</v>
+        <v>9.900192419779071</v>
       </c>
       <c r="D23">
-        <v>5.717043224648624</v>
+        <v>6.02333653335179</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>28.61577149728886</v>
+        <v>25.12390223295859</v>
       </c>
       <c r="G23">
-        <v>40.14523197946532</v>
+        <v>36.76261173103465</v>
       </c>
       <c r="H23">
-        <v>2.309213893244999</v>
+        <v>2.237220102022898</v>
       </c>
       <c r="I23">
-        <v>2.987513771230806</v>
+        <v>2.905744826224505</v>
       </c>
       <c r="J23">
-        <v>12.53955204765622</v>
+        <v>10.48108942175779</v>
       </c>
       <c r="K23">
-        <v>21.33651764560208</v>
+        <v>18.52242374083465</v>
       </c>
       <c r="L23">
-        <v>0</v>
+        <v>14.10769669381591</v>
       </c>
       <c r="M23">
-        <v>13.864827312856</v>
+        <v>13.44472546046604</v>
       </c>
       <c r="N23">
-        <v>8.228269704077542</v>
+        <v>0</v>
       </c>
       <c r="O23">
-        <v>11.94454241694301</v>
+        <v>14.07481165320407</v>
       </c>
       <c r="P23">
-        <v>0</v>
+        <v>8.298628386684683</v>
       </c>
       <c r="Q23">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:17">
+        <v>11.84891590070465</v>
+      </c>
+      <c r="R23">
+        <v>0</v>
+      </c>
+      <c r="S23">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19">
       <c r="A24" s="1">
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.12371229938755</v>
+        <v>14.95376213583161</v>
       </c>
       <c r="C24">
-        <v>9.123889440120642</v>
+        <v>9.394240946471713</v>
       </c>
       <c r="D24">
-        <v>5.593440943768972</v>
+        <v>5.748313760967695</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>27.48892672309895</v>
+        <v>24.97321070394928</v>
       </c>
       <c r="G24">
-        <v>38.50523013879928</v>
+        <v>34.16356001032081</v>
       </c>
       <c r="H24">
-        <v>2.644163871804667</v>
+        <v>2.530871112941633</v>
       </c>
       <c r="I24">
-        <v>3.28441871199688</v>
+        <v>3.150087754856849</v>
       </c>
       <c r="J24">
-        <v>12.34331973366839</v>
+        <v>11.52704952858891</v>
       </c>
       <c r="K24">
-        <v>20.9411622626345</v>
+        <v>18.78051283244609</v>
       </c>
       <c r="L24">
-        <v>0</v>
+        <v>14.49586760651088</v>
       </c>
       <c r="M24">
-        <v>12.95382714810547</v>
+        <v>13.37708799506255</v>
       </c>
       <c r="N24">
-        <v>7.8481443962152</v>
+        <v>0</v>
       </c>
       <c r="O24">
-        <v>11.28670078377588</v>
+        <v>13.19051564402585</v>
       </c>
       <c r="P24">
-        <v>0</v>
+        <v>7.947667981506842</v>
       </c>
       <c r="Q24">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17">
+        <v>11.18912418046307</v>
+      </c>
+      <c r="R24">
+        <v>0</v>
+      </c>
+      <c r="S24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19">
       <c r="A25" s="1">
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.72538991357901</v>
+        <v>13.6078110753494</v>
       </c>
       <c r="C25">
-        <v>8.54373026144939</v>
+        <v>8.679016732717141</v>
       </c>
       <c r="D25">
-        <v>5.453933941015605</v>
+        <v>5.531763457657901</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>26.26182575118564</v>
+        <v>24.13392890203498</v>
       </c>
       <c r="G25">
-        <v>36.71088063585983</v>
+        <v>32.8783983975766</v>
       </c>
       <c r="H25">
-        <v>3.020192138191541</v>
+        <v>2.872116742396267</v>
       </c>
       <c r="I25">
-        <v>3.620161519425194</v>
+        <v>3.441478089033789</v>
       </c>
       <c r="J25">
-        <v>12.14140007988445</v>
+        <v>11.49077983223309</v>
       </c>
       <c r="K25">
-        <v>20.52057239239592</v>
+        <v>18.66616010636177</v>
       </c>
       <c r="L25">
-        <v>0</v>
+        <v>14.62526358925363</v>
       </c>
       <c r="M25">
-        <v>11.89749305665475</v>
+        <v>13.03398104386978</v>
       </c>
       <c r="N25">
-        <v>7.417089055532486</v>
+        <v>0</v>
       </c>
       <c r="O25">
-        <v>10.5349643403116</v>
+        <v>12.11709692298599</v>
       </c>
       <c r="P25">
-        <v>0</v>
+        <v>7.540825546660078</v>
       </c>
       <c r="Q25">
+        <v>10.44685322220033</v>
+      </c>
+      <c r="R25">
+        <v>0</v>
+      </c>
+      <c r="S25">
         <v>0</v>
       </c>
     </row>
